--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EB8DD41-BA33-4302-AB61-07D30AE281FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,6 +198,9 @@
     <t>Posting</t>
   </si>
   <si>
+    <t>EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm</t>
+  </si>
+  <si>
     <t>1Q '20 EF :45s eq.</t>
   </si>
   <si>
@@ -385,6 +388,15 @@
   </si>
   <si>
     <t>Reciept Acknowledged:</t>
+  </si>
+  <si>
+    <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Lansing, Wilmington, Wilmington, Presque Isle, Presque Isle | Preferential Markets: Philadelphia, Philadelphia, Macon, Macon, New York, New York, Binghamton, Binghamton</t>
+  </si>
+  <si>
+    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20</t>
+  </si>
+  <si>
+    <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
   </si>
   <si>
     <t>Broadcast Standard Terms and Conditions</t>
@@ -802,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -827,18 +839,6 @@
   </si>
   <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Lansing, Wilmington, Wilmington, Presque Isle, Presque Isle | Preferential Markets: Philadelphia, Philadelphia, Macon, Macon, New York, New York, Binghamton, Binghamton</t>
-  </si>
-  <si>
-    <t>EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm</t>
-  </si>
-  <si>
-    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20</t>
-  </si>
-  <si>
-    <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
   </si>
 </sst>
 </file>
@@ -2442,8 +2442,8 @@
   </sheetPr>
   <dimension ref="A2:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0" tabSelected="1">
+      <selection activeCell="D18" sqref="D18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2575,31 +2575,31 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2615,20 +2615,20 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
@@ -2648,20 +2648,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2681,20 +2681,20 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
@@ -2714,20 +2714,20 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0</v>
+      </c>
+      <c r="F12" s="84" t="s">
         <v>103</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="83">
-        <v>0</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>102</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2747,20 +2747,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2780,20 +2780,20 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2813,20 +2813,20 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
@@ -2846,20 +2846,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="83">
         <v>0</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -2879,20 +2879,20 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
@@ -2912,20 +2912,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="83">
-        <v>0</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>102</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -2945,20 +2945,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -2978,20 +2978,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -3011,20 +3011,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -3044,20 +3044,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3077,20 +3077,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" s="83">
         <v>0</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3110,20 +3110,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="83">
+        <v>0</v>
+      </c>
+      <c r="F24" s="84" t="s">
         <v>103</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="83">
-        <v>0</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>102</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3143,20 +3143,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3176,20 +3176,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3210,7 +3210,7 @@
     <row r="27" ht="24" customHeight="1">
       <c r="C27" s="39"/>
       <c r="D27" s="91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" s="97">
         <v>0</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="29">
       <c r="C29" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3254,31 +3254,31 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K30" s="88" t="s">
         <v>30</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81"/>
@@ -3305,27 +3305,27 @@
         <v>1</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J31" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K31" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81"/>
@@ -3336,27 +3336,27 @@
         <v>1</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G32" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J32" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K32" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81"/>
@@ -3367,27 +3367,27 @@
         <v>1</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G33" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J33" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K33" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81"/>
@@ -3398,27 +3398,27 @@
         <v>1</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J34" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K34" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="A35" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81"/>
@@ -3429,27 +3429,27 @@
         <v>1</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J35" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K35" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81"/>
@@ -3460,28 +3460,28 @@
         <v>1</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J36" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K36" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="C37" s="39"/>
       <c r="D37" s="91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" s="97">
         <v>6</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="39">
       <c r="C39" s="53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -3525,31 +3525,31 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G40" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H40" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K40" s="88" t="s">
         <v>30</v>
@@ -3565,20 +3565,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3598,20 +3598,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3631,20 +3631,20 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="83">
         <v>0</v>
       </c>
       <c r="F43" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G43" s="85">
         <v>0</v>
@@ -3664,20 +3664,20 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0</v>
+      </c>
+      <c r="F44" s="84" t="s">
         <v>103</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="83">
-        <v>0</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>102</v>
       </c>
       <c r="G44" s="85">
         <v>0</v>
@@ -3697,20 +3697,20 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45" s="83">
         <v>0</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G45" s="85">
         <v>0</v>
@@ -3730,20 +3730,20 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" s="83">
         <v>0</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G46" s="85">
         <v>0</v>
@@ -3763,20 +3763,20 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E47" s="83">
         <v>0</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G47" s="85">
         <v>0</v>
@@ -3796,20 +3796,20 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E48" s="83">
         <v>0</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G48" s="85">
         <v>0</v>
@@ -3829,20 +3829,20 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E49" s="83">
         <v>0</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G49" s="85">
         <v>0</v>
@@ -3862,20 +3862,20 @@
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="83">
+        <v>0</v>
+      </c>
+      <c r="F50" s="84" t="s">
         <v>103</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="83">
-        <v>0</v>
-      </c>
-      <c r="F50" s="84" t="s">
-        <v>102</v>
       </c>
       <c r="G50" s="85">
         <v>0</v>
@@ -3895,20 +3895,20 @@
     </row>
     <row r="51" ht="24" customHeight="1">
       <c r="A51" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51" s="83">
         <v>0</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G51" s="85">
         <v>0</v>
@@ -3928,20 +3928,20 @@
     </row>
     <row r="52" ht="24" customHeight="1">
       <c r="A52" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E52" s="83">
         <v>0</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -3962,7 +3962,7 @@
     <row r="53" ht="24" customHeight="1">
       <c r="C53" s="39"/>
       <c r="D53" s="91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E53" s="97">
         <v>0</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="55">
       <c r="C55" s="53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
@@ -4006,31 +4006,31 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="A56" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" s="86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G56" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H56" s="87" t="s">
         <v>25</v>
       </c>
       <c r="I56" s="87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J56" s="92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K56" s="88" t="s">
         <v>30</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="57" ht="24" customHeight="1">
       <c r="A57" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="81"/>
@@ -4057,27 +4057,27 @@
         <v>1</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G57" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H57" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I57" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J57" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K57" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="A58" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="81"/>
@@ -4088,27 +4088,27 @@
         <v>1</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I58" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J58" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" ht="24" customHeight="1">
       <c r="A59" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="81"/>
@@ -4119,27 +4119,27 @@
         <v>1</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G59" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I59" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J59" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K59" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" ht="24" customHeight="1">
       <c r="A60" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="81"/>
@@ -4150,28 +4150,28 @@
         <v>1</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G60" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I60" s="83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J60" s="93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" ht="24" customHeight="1">
       <c r="C61" s="39"/>
       <c r="D61" s="91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" s="97">
         <v>4</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="C63" s="53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I63" s="60"/>
     </row>
@@ -4206,11 +4206,11 @@
         <v>23</v>
       </c>
       <c r="D64" s="101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E64" s="101"/>
       <c r="F64" s="101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G64" s="101"/>
       <c r="H64" s="101" t="s">
@@ -4246,13 +4246,13 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="C67" s="113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D67" s="109"/>
       <c r="E67" s="109"/>
       <c r="F67" s="112"/>
       <c r="G67" s="114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H67" s="109"/>
       <c r="I67" s="115"/>
@@ -4270,9 +4270,8 @@
       <c r="C69" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="136" t="str">
-        <f>'PROPOSAL'!F37</f>
-        <v>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Lansing, Wilmington, Wilmington, Presque Isle, Presque Isle | Preferential Markets: Philadelphia, Philadelphia, Macon, Macon, New York, New York, Binghamton, Binghamton</v>
+      <c r="D69" s="136" t="s">
+        <v>118</v>
       </c>
       <c r="E69" s="136"/>
       <c r="F69" s="136"/>
@@ -4311,9 +4310,8 @@
       <c r="C71" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="136" t="str">
-        <f>'PROPOSAL'!F39</f>
-        <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm</v>
+      <c r="D71" s="136" t="s">
+        <v>54</v>
       </c>
       <c r="E71" s="136"/>
       <c r="F71" s="136"/>
@@ -4390,9 +4388,8 @@
       <c r="C75" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="136" t="str">
-        <f>'PROPOSAL'!F43</f>
-        <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20</v>
+      <c r="D75" s="136" t="s">
+        <v>119</v>
       </c>
       <c r="E75" s="136"/>
       <c r="F75" s="136"/>
@@ -4431,9 +4428,8 @@
       <c r="C77" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="136" t="str">
-        <f>'PROPOSAL'!F45</f>
-        <v>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</v>
+      <c r="D77" s="136" t="s">
+        <v>120</v>
       </c>
       <c r="E77" s="136"/>
       <c r="F77" s="136"/>
@@ -4510,7 +4506,7 @@
   <dimension ref="A2:P188"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4538,7 +4534,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4562,9 +4558,8 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="134" t="str">
-        <f>'PROPOSAL'!F39</f>
-        <v>EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-TU,TH-SU 11:00am - 01:00pm</v>
+      <c r="D5" s="134" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="134"/>
       <c r="F5" s="134"/>
@@ -4584,22 +4579,22 @@
     </row>
     <row r="7">
       <c r="B7" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="139"/>
       <c r="E7" s="139"/>
       <c r="F7" s="140"/>
       <c r="G7" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="139"/>
       <c r="I7" s="139"/>
       <c r="J7" s="140"/>
       <c r="K7" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="139"/>
       <c r="M7" s="139"/>
@@ -4654,7 +4649,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="63">
         <v>0</v>
@@ -4842,7 +4837,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="70">
         <v>0</v>
@@ -4889,7 +4884,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="131"/>
       <c r="D14" s="132"/>
@@ -4902,13 +4897,13 @@
       <c r="K14" s="131"/>
       <c r="L14" s="132"/>
       <c r="M14" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O14" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="130">
         <v>7</v>
@@ -4916,22 +4911,22 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="139"/>
       <c r="E16" s="139"/>
       <c r="F16" s="140"/>
       <c r="G16" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="139"/>
       <c r="I16" s="139"/>
       <c r="J16" s="140"/>
       <c r="K16" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="139"/>
       <c r="M16" s="139"/>
@@ -4986,7 +4981,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="63">
         <v>0</v>
@@ -5174,7 +5169,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="70">
         <v>0</v>
@@ -5221,7 +5216,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
@@ -5234,13 +5229,13 @@
       <c r="K23" s="131"/>
       <c r="L23" s="132"/>
       <c r="M23" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N23" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O23" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P23" s="130">
         <v>7</v>
@@ -5248,22 +5243,22 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="139"/>
       <c r="E25" s="139"/>
       <c r="F25" s="140"/>
       <c r="G25" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
       <c r="J25" s="140"/>
       <c r="K25" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="139"/>
       <c r="M25" s="139"/>
@@ -5318,7 +5313,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="63">
         <v>0</v>
@@ -5506,7 +5501,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="70">
         <v>0</v>
@@ -5553,7 +5548,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="131"/>
       <c r="D32" s="132"/>
@@ -5566,13 +5561,13 @@
       <c r="K32" s="131"/>
       <c r="L32" s="132"/>
       <c r="M32" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N32" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O32" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P32" s="130">
         <v>7</v>
@@ -5580,22 +5575,22 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="139"/>
       <c r="E34" s="139"/>
       <c r="F34" s="140"/>
       <c r="G34" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="139"/>
       <c r="I34" s="139"/>
       <c r="J34" s="140"/>
       <c r="K34" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="139"/>
       <c r="M34" s="139"/>
@@ -5650,7 +5645,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="63">
         <v>0</v>
@@ -5838,7 +5833,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="70">
         <v>0</v>
@@ -5885,7 +5880,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="131"/>
       <c r="D41" s="132"/>
@@ -5898,13 +5893,13 @@
       <c r="K41" s="131"/>
       <c r="L41" s="132"/>
       <c r="M41" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N41" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O41" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P41" s="130">
         <v>7</v>
@@ -5912,22 +5907,22 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="139"/>
       <c r="E43" s="139"/>
       <c r="F43" s="140"/>
       <c r="G43" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="139"/>
       <c r="I43" s="139"/>
       <c r="J43" s="140"/>
       <c r="K43" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="139"/>
       <c r="M43" s="139"/>
@@ -5982,7 +5977,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="63">
         <v>0</v>
@@ -6170,7 +6165,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="70">
         <v>0</v>
@@ -6217,7 +6212,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="131"/>
       <c r="D50" s="132"/>
@@ -6230,13 +6225,13 @@
       <c r="K50" s="131"/>
       <c r="L50" s="132"/>
       <c r="M50" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N50" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O50" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P50" s="130">
         <v>7</v>
@@ -6244,22 +6239,22 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="139"/>
       <c r="E52" s="139"/>
       <c r="F52" s="140"/>
       <c r="G52" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="139"/>
       <c r="I52" s="139"/>
       <c r="J52" s="140"/>
       <c r="K52" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="139"/>
       <c r="M52" s="139"/>
@@ -6314,7 +6309,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="63">
         <v>0</v>
@@ -6502,7 +6497,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="70">
         <v>0</v>
@@ -6549,7 +6544,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="131"/>
       <c r="D59" s="132"/>
@@ -6562,13 +6557,13 @@
       <c r="K59" s="131"/>
       <c r="L59" s="132"/>
       <c r="M59" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N59" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O59" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P59" s="130">
         <v>7</v>
@@ -6576,22 +6571,22 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
       <c r="F61" s="140"/>
       <c r="G61" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H61" s="139"/>
       <c r="I61" s="139"/>
       <c r="J61" s="140"/>
       <c r="K61" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L61" s="139"/>
       <c r="M61" s="139"/>
@@ -6646,7 +6641,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="B63" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="63">
         <v>0</v>
@@ -6834,7 +6829,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -6881,7 +6876,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="131"/>
       <c r="D68" s="132"/>
@@ -6894,13 +6889,13 @@
       <c r="K68" s="131"/>
       <c r="L68" s="132"/>
       <c r="M68" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N68" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O68" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P68" s="130">
         <v>7</v>
@@ -6908,22 +6903,22 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="139"/>
       <c r="E70" s="139"/>
       <c r="F70" s="140"/>
       <c r="G70" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H70" s="139"/>
       <c r="I70" s="139"/>
       <c r="J70" s="140"/>
       <c r="K70" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L70" s="139"/>
       <c r="M70" s="139"/>
@@ -6978,7 +6973,7 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="B72" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="63">
         <v>0</v>
@@ -7166,7 +7161,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -7213,7 +7208,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="131"/>
       <c r="D77" s="132"/>
@@ -7226,13 +7221,13 @@
       <c r="K77" s="131"/>
       <c r="L77" s="132"/>
       <c r="M77" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N77" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O77" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P77" s="130">
         <v>7</v>
@@ -7240,22 +7235,22 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79" s="139"/>
       <c r="E79" s="139"/>
       <c r="F79" s="140"/>
       <c r="G79" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H79" s="139"/>
       <c r="I79" s="139"/>
       <c r="J79" s="140"/>
       <c r="K79" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L79" s="139"/>
       <c r="M79" s="139"/>
@@ -7310,7 +7305,7 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="B81" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" s="63">
         <v>0</v>
@@ -7498,7 +7493,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="70">
         <v>0</v>
@@ -7545,7 +7540,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" s="131"/>
       <c r="D86" s="132"/>
@@ -7558,13 +7553,13 @@
       <c r="K86" s="131"/>
       <c r="L86" s="132"/>
       <c r="M86" s="132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N86" s="132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O86" s="133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P86" s="130">
         <v>7</v>
@@ -7572,22 +7567,22 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C88" s="138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88" s="139"/>
       <c r="E88" s="139"/>
       <c r="F88" s="140"/>
       <c r="G88" s="139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H88" s="139"/>
       <c r="I88" s="139"/>
       <c r="J88" s="140"/>
       <c r="K88" s="138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L88" s="139"/>
       <c r="M88" s="139"/>
@@ -7642,7 +7637,7 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="B90" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="63"/>
       <c r="D90" s="64"/>
@@ -7703,16 +7698,16 @@
       <c r="K92" s="66"/>
       <c r="L92" s="36"/>
       <c r="M92" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N92" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O92" s="58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P92" s="58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -7730,21 +7725,21 @@
       <c r="K93" s="73"/>
       <c r="L93" s="38"/>
       <c r="M93" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N93" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O93" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P93" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="70"/>
       <c r="D94" s="71"/>
@@ -7757,21 +7752,21 @@
       <c r="K94" s="70"/>
       <c r="L94" s="71"/>
       <c r="M94" s="71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N94" s="71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O94" s="72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P94" s="72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" s="131"/>
       <c r="D95" s="132"/>
@@ -7790,23 +7785,23 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C97" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
       <c r="F97" s="140"/>
       <c r="G97" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H97" s="139"/>
       <c r="I97" s="139"/>
       <c r="J97" s="139"/>
       <c r="K97" s="140"/>
       <c r="L97" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M97" s="139"/>
       <c r="N97" s="139"/>
@@ -7860,7 +7855,7 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="B99" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="63">
         <v>0.04</v>
@@ -8048,7 +8043,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="70">
         <v>40000</v>
@@ -8095,11 +8090,11 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="131"/>
       <c r="D104" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E104" s="132"/>
       <c r="F104" s="132"/>
@@ -8118,23 +8113,23 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
       <c r="F106" s="140"/>
       <c r="G106" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H106" s="139"/>
       <c r="I106" s="139"/>
       <c r="J106" s="139"/>
       <c r="K106" s="140"/>
       <c r="L106" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M106" s="139"/>
       <c r="N106" s="139"/>
@@ -8188,7 +8183,7 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="B108" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="63">
         <v>0.04</v>
@@ -8376,7 +8371,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" s="70">
         <v>40000</v>
@@ -8423,11 +8418,11 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E113" s="132"/>
       <c r="F113" s="132"/>
@@ -8446,23 +8441,23 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C115" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
       <c r="F115" s="140"/>
       <c r="G115" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H115" s="139"/>
       <c r="I115" s="139"/>
       <c r="J115" s="139"/>
       <c r="K115" s="140"/>
       <c r="L115" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M115" s="139"/>
       <c r="N115" s="139"/>
@@ -8516,7 +8511,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="B117" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="63">
         <v>0.08</v>
@@ -8704,7 +8699,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="70">
         <v>80000</v>
@@ -8751,11 +8746,11 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C122" s="131"/>
       <c r="D122" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E122" s="132"/>
       <c r="F122" s="132"/>
@@ -8774,23 +8769,23 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C124" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
       <c r="F124" s="140"/>
       <c r="G124" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H124" s="139"/>
       <c r="I124" s="139"/>
       <c r="J124" s="139"/>
       <c r="K124" s="140"/>
       <c r="L124" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M124" s="139"/>
       <c r="N124" s="139"/>
@@ -8844,7 +8839,7 @@
     </row>
     <row r="126" ht="24" customHeight="1">
       <c r="B126" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="63">
         <v>0.04</v>
@@ -9032,7 +9027,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C130" s="70">
         <v>40000</v>
@@ -9079,11 +9074,11 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C131" s="131"/>
       <c r="D131" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E131" s="132"/>
       <c r="F131" s="132"/>
@@ -9102,23 +9097,23 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C133" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
       <c r="F133" s="140"/>
       <c r="G133" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="139"/>
       <c r="K133" s="140"/>
       <c r="L133" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M133" s="139"/>
       <c r="N133" s="139"/>
@@ -9172,7 +9167,7 @@
     </row>
     <row r="135" ht="24" customHeight="1">
       <c r="B135" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C135" s="63">
         <v>0.04</v>
@@ -9360,7 +9355,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="70">
         <v>40000</v>
@@ -9407,11 +9402,11 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C140" s="131"/>
       <c r="D140" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E140" s="132"/>
       <c r="F140" s="132"/>
@@ -9430,23 +9425,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C142" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="139"/>
       <c r="K142" s="140"/>
       <c r="L142" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M142" s="139"/>
       <c r="N142" s="139"/>
@@ -9500,7 +9495,7 @@
     </row>
     <row r="144" ht="24" customHeight="1">
       <c r="B144" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C144" s="63">
         <v>0.08</v>
@@ -9688,7 +9683,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C148" s="70">
         <v>80000</v>
@@ -9735,11 +9730,11 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C149" s="131"/>
       <c r="D149" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E149" s="132"/>
       <c r="F149" s="132"/>
@@ -9758,23 +9753,23 @@
     </row>
     <row r="151">
       <c r="B151" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="139"/>
       <c r="K151" s="140"/>
       <c r="L151" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M151" s="139"/>
       <c r="N151" s="139"/>
@@ -9828,7 +9823,7 @@
     </row>
     <row r="153" ht="24" customHeight="1">
       <c r="B153" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C153" s="63">
         <v>0.02</v>
@@ -10016,7 +10011,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C157" s="70">
         <v>20000</v>
@@ -10063,11 +10058,11 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C158" s="131"/>
       <c r="D158" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E158" s="132"/>
       <c r="F158" s="132"/>
@@ -10086,23 +10081,23 @@
     </row>
     <row r="160">
       <c r="B160" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="139"/>
       <c r="K160" s="140"/>
       <c r="L160" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M160" s="139"/>
       <c r="N160" s="139"/>
@@ -10156,7 +10151,7 @@
     </row>
     <row r="162" ht="24" customHeight="1">
       <c r="B162" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C162" s="63">
         <v>0.02</v>
@@ -10344,7 +10339,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C166" s="70">
         <v>20000</v>
@@ -10391,11 +10386,11 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C167" s="131"/>
       <c r="D167" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E167" s="132"/>
       <c r="F167" s="132"/>
@@ -10414,23 +10409,23 @@
     </row>
     <row r="169">
       <c r="B169" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C169" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
       <c r="F169" s="140"/>
       <c r="G169" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H169" s="139"/>
       <c r="I169" s="139"/>
       <c r="J169" s="139"/>
       <c r="K169" s="140"/>
       <c r="L169" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M169" s="139"/>
       <c r="N169" s="139"/>
@@ -10484,7 +10479,7 @@
     </row>
     <row r="171" ht="24" customHeight="1">
       <c r="B171" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C171" s="63">
         <v>0.04</v>
@@ -10672,7 +10667,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C175" s="70">
         <v>40000</v>
@@ -10719,11 +10714,11 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C176" s="131"/>
       <c r="D176" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E176" s="132"/>
       <c r="F176" s="132"/>
@@ -10742,23 +10737,23 @@
     </row>
     <row r="178">
       <c r="B178" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C178" s="138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
       <c r="F178" s="140"/>
       <c r="G178" s="139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H178" s="139"/>
       <c r="I178" s="139"/>
       <c r="J178" s="139"/>
       <c r="K178" s="140"/>
       <c r="L178" s="138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M178" s="139"/>
       <c r="N178" s="139"/>
@@ -10812,7 +10807,7 @@
     </row>
     <row r="180" ht="24" customHeight="1">
       <c r="B180" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" s="63"/>
       <c r="D180" s="64"/>
@@ -10861,10 +10856,10 @@
         <v>28</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D182" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E182" s="36"/>
       <c r="F182" s="58"/>
@@ -10878,7 +10873,7 @@
       <c r="N182" s="36"/>
       <c r="O182" s="58"/>
       <c r="P182" s="58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" ht="24" customHeight="1">
@@ -10886,10 +10881,10 @@
         <v>30</v>
       </c>
       <c r="C183" s="73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="74"/>
@@ -10903,18 +10898,18 @@
       <c r="N183" s="38"/>
       <c r="O183" s="74"/>
       <c r="P183" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C184" s="70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D184" s="71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E184" s="71"/>
       <c r="F184" s="72"/>
@@ -10928,12 +10923,12 @@
       <c r="N184" s="71"/>
       <c r="O184" s="72"/>
       <c r="P184" s="72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C185" s="131"/>
       <c r="D185" s="132"/>
@@ -11120,7 +11115,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -11153,7 +11148,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -11414,7 +11409,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -13670,97 +13665,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -13796,7 +13791,7 @@
   </sheetPr>
   <dimension ref="A2:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="0">
+    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -13821,10 +13816,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13859,24 +13854,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -13888,7 +13883,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -13908,7 +13903,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -13923,7 +13918,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -13934,14 +13929,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -13994,14 +13989,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -14054,14 +14049,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -14114,14 +14109,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -14174,14 +14169,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -14234,14 +14229,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -14294,14 +14289,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -14356,7 +14351,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -14409,7 +14404,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -14424,7 +14419,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="140"/>
       <c r="N17" s="138" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O17" s="139"/>
       <c r="P17" s="139"/>
@@ -14435,14 +14430,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -14495,14 +14490,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -14555,14 +14550,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -14615,14 +14610,14 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -14675,14 +14670,14 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="119">
         <v>0</v>
@@ -14735,14 +14730,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -14795,14 +14790,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -14857,7 +14852,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -14925,7 +14920,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -14936,14 +14931,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -14996,14 +14991,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -15056,14 +15051,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -15116,14 +15111,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -15176,14 +15171,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -15236,14 +15231,14 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -15296,14 +15291,14 @@
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -15358,7 +15353,7 @@
       <c r="B35" s="25"/>
       <c r="C35" s="39"/>
       <c r="D35" s="40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E35" s="51">
         <v>0</v>
@@ -15416,7 +15411,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="117"/>
       <c r="F37" s="145" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G37" s="145"/>
       <c r="H37" s="145"/>
@@ -15458,7 +15453,7 @@
       </c>
       <c r="D39" s="55"/>
       <c r="F39" s="145" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
@@ -15541,7 +15536,7 @@
       </c>
       <c r="D43" s="55"/>
       <c r="F43" s="145" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G43" s="145"/>
       <c r="H43" s="145"/>
@@ -15583,7 +15578,7 @@
       </c>
       <c r="D45" s="55"/>
       <c r="F45" s="136" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="G45" s="136"/>
       <c r="H45" s="136"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/25/20</t>
+    <t>Created 02/26/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1723,9 +1723,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2468,7 +2465,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4534,7 +4531,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -15003,8 +15000,8 @@
       <c r="E29" s="119">
         <v>0</v>
       </c>
-      <c r="F29" s="120" t="s">
-        <v>38</v>
+      <c r="F29" s="120">
+        <v>0</v>
       </c>
       <c r="G29" s="121">
         <v>200000</v>
@@ -15063,8 +15060,8 @@
       <c r="E30" s="119">
         <v>0</v>
       </c>
-      <c r="F30" s="120" t="s">
-        <v>38</v>
+      <c r="F30" s="120">
+        <v>0</v>
       </c>
       <c r="G30" s="121">
         <v>200000</v>
@@ -15123,8 +15120,8 @@
       <c r="E31" s="119">
         <v>0</v>
       </c>
-      <c r="F31" s="120" t="s">
-        <v>38</v>
+      <c r="F31" s="120">
+        <v>0</v>
       </c>
       <c r="G31" s="121">
         <v>100000</v>
@@ -15183,8 +15180,8 @@
       <c r="E32" s="119">
         <v>0</v>
       </c>
-      <c r="F32" s="120" t="s">
-        <v>38</v>
+      <c r="F32" s="120">
+        <v>0</v>
       </c>
       <c r="G32" s="121">
         <v>200000</v>
@@ -15243,8 +15240,8 @@
       <c r="E33" s="119">
         <v>0</v>
       </c>
-      <c r="F33" s="120" t="s">
-        <v>38</v>
+      <c r="F33" s="120">
+        <v>0</v>
       </c>
       <c r="G33" s="121">
         <v>200000</v>
@@ -15303,8 +15300,8 @@
       <c r="E34" s="119">
         <v>0</v>
       </c>
-      <c r="F34" s="120" t="s">
-        <v>38</v>
+      <c r="F34" s="120">
+        <v>0</v>
       </c>
       <c r="G34" s="121">
         <v>100000</v>
@@ -15404,196 +15401,62 @@
         <v>3345.69</v>
       </c>
     </row>
-    <row r="37" ht="48" customHeight="1">
+    <row r="36" ht="8.1" customHeight="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
+    </row>
+    <row r="37" ht="147" customHeight="1">
       <c r="C37" s="55" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D37" s="55"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="145" t="s">
+      <c r="F37" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="145"/>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-    </row>
-    <row r="38" ht="8.1" customHeight="1">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-    </row>
-    <row r="39" ht="48" customHeight="1" s="117" customFormat="1">
-      <c r="C39" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="55"/>
-      <c r="F39" s="145" t="s">
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+    </row>
+    <row r="39">
+      <c r="F39" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="145"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
-      <c r="T39" s="145"/>
-    </row>
-    <row r="40" ht="8.1" customHeight="1">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-    </row>
-    <row r="41" ht="48" customHeight="1">
-      <c r="C41" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="145"/>
-      <c r="N41" s="145"/>
-      <c r="O41" s="145"/>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="145"/>
-      <c r="R41" s="145"/>
-      <c r="S41" s="145"/>
-      <c r="T41" s="145"/>
-    </row>
-    <row r="42" ht="8.1" customHeight="1">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-    </row>
-    <row r="43" ht="48.95" customHeight="1" s="117" customFormat="1">
-      <c r="C43" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="55"/>
-      <c r="F43" s="145" t="s">
+    </row>
+    <row r="43">
+      <c r="F43" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="145"/>
-      <c r="N43" s="145"/>
-      <c r="O43" s="145"/>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="145"/>
-      <c r="R43" s="145"/>
-      <c r="S43" s="145"/>
-      <c r="T43" s="145"/>
-    </row>
-    <row r="44" ht="8.1" customHeight="1">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-    </row>
-    <row r="45" ht="147" customHeight="1">
-      <c r="C45" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="55"/>
-      <c r="F45" s="136" t="s">
+    </row>
+    <row r="45">
+      <c r="F45" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15601,16 +15464,12 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F39:T39"/>
-    <mergeCell ref="F41:T41"/>
-    <mergeCell ref="F43:T43"/>
-    <mergeCell ref="F45:T45"/>
+    <mergeCell ref="F37:T37"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
-    <mergeCell ref="F37:T37"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:T17"/>
     <mergeCell ref="H27:M27"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4471,7 +4471,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -7715,10 +7715,18 @@
       <c r="J95" s="133"/>
       <c r="K95" s="131"/>
       <c r="L95" s="132"/>
-      <c r="M95" s="132"/>
-      <c r="N95" s="132"/>
-      <c r="O95" s="133"/>
-      <c r="P95" s="130"/>
+      <c r="M95" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="N95" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="O95" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="P95" s="130">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
@@ -10868,7 +10876,9 @@
         <v>61</v>
       </c>
       <c r="C185" s="131"/>
-      <c r="D185" s="132"/>
+      <c r="D185" s="132" t="s">
+        <v>79</v>
+      </c>
       <c r="E185" s="132"/>
       <c r="F185" s="132"/>
       <c r="G185" s="131"/>
@@ -10880,7 +10890,9 @@
       <c r="M185" s="132"/>
       <c r="N185" s="132"/>
       <c r="O185" s="133"/>
-      <c r="P185" s="130"/>
+      <c r="P185" s="130">
+        <v>4</v>
+      </c>
     </row>
     <row r="188" ht="24" customHeight="1">
       <c r="P188" s="60"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4471,7 +4471,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4471,7 +4471,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -393,7 +393,7 @@
     <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Lansing, Wilmington, Wilmington, Presque Isle, Presque Isle | Preferential Markets: Philadelphia, Philadelphia, Macon, Macon, New York, New York, Binghamton, Binghamton</t>
   </si>
   <si>
-    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20</t>
+    <t>3/15-3/17/20, 3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-4/11/20</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4471,7 +4471,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 03/10/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4471,7 +4471,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -814,7 +814,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/10/20</t>
+    <t>Created 03/12/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4471,7 +4471,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4E787E8-1200-41A4-A260-D43CD30914D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E91EEE2-103A-4DE2-B420-4E5455B83C81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -225,13 +225,19 @@
     <t>3/15</t>
   </si>
   <si>
+    <t>3/19-20</t>
+  </si>
+  <si>
+    <t>3/28</t>
+  </si>
+  <si>
+    <t>1Q '20 EF :45s</t>
+  </si>
+  <si>
     <t>3/16-17, 3/19-20</t>
   </si>
   <si>
     <t>3/24, 3/28</t>
-  </si>
-  <si>
-    <t>1Q '20 EF :45s</t>
   </si>
   <si>
     <t>1Q '20 EF Total</t>
@@ -273,10 +279,13 @@
     <t>June</t>
   </si>
   <si>
-    <t>4/7, 4/9-11</t>
+    <t>4/9-11</t>
   </si>
   <si>
     <t>2Q '20 EF :45s</t>
+  </si>
+  <si>
+    <t>4/7, 4/9-11</t>
   </si>
   <si>
     <t>2Q '20 EF Total</t>
@@ -814,7 +823,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/12/20</t>
+    <t>Created 06/17/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -829,7 +838,7 @@
     <t>A21-24</t>
   </si>
   <si>
-    <t>:45 eq., :45</t>
+    <t>:45, :45 eq.</t>
   </si>
   <si>
     <t>Order</t>
@@ -1292,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1726,6 +1735,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2380,7 +2392,7 @@
   <dimension ref="A2:T78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2417,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/12/20</v>
+        <v>Created 06/17/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2458,7 +2470,7 @@
       </c>
       <c r="H5" s="76" t="str">
         <f>'PROPOSAL'!L5</f>
-        <v>:45 eq., :45</v>
+        <v>:45, :45 eq.</v>
       </c>
       <c r="I5" s="76" t="str">
         <f>'PROPOSAL'!N5</f>
@@ -2494,7 +2506,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -2512,19 +2524,19 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G8" s="87" t="s">
         <v>60</v>
@@ -2533,10 +2545,10 @@
         <v>25</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K8" s="88" t="s">
         <v>30</v>
@@ -2552,20 +2564,20 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G9" s="85">
         <v>0</v>
@@ -2577,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K9" s="95">
         <v>25</v>
@@ -2585,20 +2597,20 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" s="85">
         <v>0</v>
@@ -2610,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K10" s="95">
         <v>25</v>
@@ -2618,20 +2630,20 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="83">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="83">
-        <v>0</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>101</v>
       </c>
       <c r="G11" s="85">
         <v>0</v>
@@ -2643,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K11" s="95">
         <v>25</v>
@@ -2651,20 +2663,20 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G12" s="85">
         <v>0</v>
@@ -2676,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K12" s="95">
         <v>25</v>
@@ -2684,20 +2696,20 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E13" s="83">
         <v>0</v>
       </c>
       <c r="F13" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G13" s="85">
         <v>0</v>
@@ -2709,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K13" s="95">
         <v>25</v>
@@ -2717,20 +2729,20 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G14" s="85">
         <v>0</v>
@@ -2742,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K14" s="95">
         <v>25</v>
@@ -2750,20 +2762,20 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E15" s="83">
         <v>0</v>
       </c>
       <c r="F15" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="85">
         <v>0</v>
@@ -2775,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K15" s="95">
         <v>25</v>
@@ -2783,20 +2795,20 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="83">
+        <v>0</v>
+      </c>
+      <c r="F16" s="84" t="s">
         <v>106</v>
-      </c>
-      <c r="E16" s="83">
-        <v>0</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>103</v>
       </c>
       <c r="G16" s="85">
         <v>0</v>
@@ -2808,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K16" s="95">
         <v>25</v>
@@ -2816,20 +2828,20 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="83">
+        <v>0</v>
+      </c>
+      <c r="F17" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="83">
-        <v>0</v>
-      </c>
-      <c r="F17" s="84" t="s">
-        <v>101</v>
       </c>
       <c r="G17" s="85">
         <v>0</v>
@@ -2841,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K17" s="95">
         <v>25</v>
@@ -2849,20 +2861,20 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="s">
         <v>106</v>
-      </c>
-      <c r="E18" s="83">
-        <v>0</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>103</v>
       </c>
       <c r="G18" s="85">
         <v>0</v>
@@ -2874,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K18" s="95">
         <v>25</v>
@@ -2882,20 +2894,20 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G19" s="85">
         <v>0</v>
@@ -2907,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K19" s="95">
         <v>25</v>
@@ -2915,20 +2927,20 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D20" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="83">
+        <v>0</v>
+      </c>
+      <c r="F20" s="84" t="s">
         <v>106</v>
-      </c>
-      <c r="E20" s="83">
-        <v>0</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>103</v>
       </c>
       <c r="G20" s="85">
         <v>0</v>
@@ -2940,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K20" s="95">
         <v>25</v>
@@ -2948,20 +2960,20 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E21" s="83">
         <v>0</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -2973,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K21" s="95">
         <v>25</v>
@@ -2981,20 +2993,20 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E22" s="83">
         <v>0</v>
       </c>
       <c r="F22" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -3006,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="95">
         <v>25</v>
@@ -3014,20 +3026,20 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="83">
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="83">
-        <v>0</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>101</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -3039,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K23" s="95">
         <v>25</v>
@@ -3047,20 +3059,20 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -3072,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K24" s="95">
         <v>25</v>
@@ -3080,20 +3092,20 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -3105,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K25" s="95">
         <v>25</v>
@@ -3113,20 +3125,20 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -3138,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K26" s="95">
         <v>25</v>
@@ -3147,7 +3159,7 @@
     <row r="27" ht="24" customHeight="1">
       <c r="C27" s="39"/>
       <c r="D27" s="91" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E27" s="97">
         <v>0</v>
@@ -3173,7 +3185,7 @@
     </row>
     <row r="29">
       <c r="C29" s="53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3191,19 +3203,19 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E30" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G30" s="87" t="s">
         <v>60</v>
@@ -3212,10 +3224,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K30" s="88" t="s">
         <v>30</v>
@@ -3231,7 +3243,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="81"/>
@@ -3242,27 +3254,27 @@
         <v>1</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G31" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H31" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J31" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K31" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="81"/>
@@ -3273,27 +3285,27 @@
         <v>1</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G32" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H32" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J32" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K32" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="81"/>
@@ -3304,27 +3316,27 @@
         <v>1</v>
       </c>
       <c r="F33" s="84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G33" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H33" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J33" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K33" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="81"/>
@@ -3335,27 +3347,27 @@
         <v>1</v>
       </c>
       <c r="F34" s="84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J34" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="A35" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="81"/>
@@ -3366,27 +3378,27 @@
         <v>1</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G35" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H35" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I35" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J35" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K35" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="A36" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="81"/>
@@ -3397,28 +3409,28 @@
         <v>1</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J36" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K36" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="C37" s="39"/>
       <c r="D37" s="91" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E37" s="97">
         <v>6</v>
@@ -3444,7 +3456,7 @@
     </row>
     <row r="39">
       <c r="C39" s="53" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -3462,19 +3474,19 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="A40" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E40" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G40" s="87" t="s">
         <v>60</v>
@@ -3483,10 +3495,10 @@
         <v>25</v>
       </c>
       <c r="I40" s="87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K40" s="88" t="s">
         <v>30</v>
@@ -3502,20 +3514,20 @@
     </row>
     <row r="41" ht="24" customHeight="1">
       <c r="A41" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E41" s="83">
         <v>0</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -3527,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K41" s="95">
         <v>25</v>
@@ -3535,20 +3547,20 @@
     </row>
     <row r="42" ht="24" customHeight="1">
       <c r="A42" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E42" s="83">
         <v>0</v>
       </c>
       <c r="F42" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G42" s="85">
         <v>0</v>
@@ -3560,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K42" s="95">
         <v>25</v>
@@ -3568,20 +3580,20 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="83">
+        <v>0</v>
+      </c>
+      <c r="F43" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="D43" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="83">
-        <v>0</v>
-      </c>
-      <c r="F43" s="84" t="s">
-        <v>101</v>
       </c>
       <c r="G43" s="85">
         <v>0</v>
@@ -3593,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K43" s="95">
         <v>25</v>
@@ -3601,20 +3613,20 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E44" s="83">
         <v>0</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G44" s="85">
         <v>0</v>
@@ -3626,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K44" s="95">
         <v>25</v>
@@ -3634,20 +3646,20 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E45" s="83">
         <v>0</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G45" s="85">
         <v>0</v>
@@ -3659,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K45" s="95">
         <v>25</v>
@@ -3667,20 +3679,20 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E46" s="83">
         <v>0</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G46" s="85">
         <v>0</v>
@@ -3692,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K46" s="95">
         <v>25</v>
@@ -3700,20 +3712,20 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E47" s="83">
         <v>0</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G47" s="85">
         <v>0</v>
@@ -3725,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K47" s="95">
         <v>25</v>
@@ -3733,20 +3745,20 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E48" s="83">
         <v>0</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G48" s="85">
         <v>0</v>
@@ -3758,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K48" s="95">
         <v>25</v>
@@ -3766,20 +3778,20 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="83">
+        <v>0</v>
+      </c>
+      <c r="F49" s="84" t="s">
         <v>104</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="83">
-        <v>0</v>
-      </c>
-      <c r="F49" s="84" t="s">
-        <v>101</v>
       </c>
       <c r="G49" s="85">
         <v>0</v>
@@ -3791,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K49" s="95">
         <v>25</v>
@@ -3799,20 +3811,20 @@
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E50" s="83">
         <v>0</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G50" s="85">
         <v>0</v>
@@ -3824,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="93">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="K50" s="95">
         <v>25</v>
@@ -3832,20 +3844,20 @@
     </row>
     <row r="51" ht="24" customHeight="1">
       <c r="A51" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E51" s="83">
         <v>0</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G51" s="85">
         <v>0</v>
@@ -3857,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K51" s="95">
         <v>25</v>
@@ -3865,20 +3877,20 @@
     </row>
     <row r="52" ht="24" customHeight="1">
       <c r="A52" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E52" s="83">
         <v>0</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -3890,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="93">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="K52" s="95">
         <v>25</v>
@@ -3899,7 +3911,7 @@
     <row r="53" ht="24" customHeight="1">
       <c r="C53" s="39"/>
       <c r="D53" s="91" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E53" s="97">
         <v>0</v>
@@ -3925,7 +3937,7 @@
     </row>
     <row r="55">
       <c r="C55" s="53" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
@@ -3943,19 +3955,19 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="A56" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C56" s="86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E56" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G56" s="87" t="s">
         <v>60</v>
@@ -3964,10 +3976,10 @@
         <v>25</v>
       </c>
       <c r="I56" s="87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J56" s="92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K56" s="88" t="s">
         <v>30</v>
@@ -3983,7 +3995,7 @@
     </row>
     <row r="57" ht="24" customHeight="1">
       <c r="A57" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="81"/>
@@ -3994,27 +4006,27 @@
         <v>1</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G57" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H57" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I57" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J57" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K57" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="A58" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="81"/>
@@ -4025,27 +4037,27 @@
         <v>1</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H58" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I58" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J58" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K58" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" ht="24" customHeight="1">
       <c r="A59" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="81"/>
@@ -4056,27 +4068,27 @@
         <v>1</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G59" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H59" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I59" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J59" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K59" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" ht="24" customHeight="1">
       <c r="A60" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="81"/>
@@ -4087,28 +4099,28 @@
         <v>1</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G60" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H60" s="85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I60" s="83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J60" s="93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K60" s="95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" ht="24" customHeight="1">
       <c r="C61" s="39"/>
       <c r="D61" s="91" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E61" s="97">
         <v>4</v>
@@ -4134,7 +4146,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="C63" s="53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I63" s="60"/>
     </row>
@@ -4147,7 +4159,7 @@
       </c>
       <c r="E64" s="101"/>
       <c r="F64" s="101" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G64" s="101"/>
       <c r="H64" s="101" t="s">
@@ -4183,13 +4195,13 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="C67" s="113" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D67" s="109"/>
       <c r="E67" s="109"/>
       <c r="F67" s="112"/>
       <c r="G67" s="114" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H67" s="109"/>
       <c r="I67" s="115"/>
@@ -4208,7 +4220,7 @@
         <v>42</v>
       </c>
       <c r="D69" s="136" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E69" s="136"/>
       <c r="F69" s="136"/>
@@ -4326,7 +4338,7 @@
         <v>49</v>
       </c>
       <c r="D75" s="136" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E75" s="136"/>
       <c r="F75" s="136"/>
@@ -4366,7 +4378,7 @@
         <v>51</v>
       </c>
       <c r="D77" s="136" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E77" s="136"/>
       <c r="F77" s="136"/>
@@ -4471,7 +4483,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/12/20</v>
+        <v>Created 06/17/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4515,7 +4527,7 @@
       <c r="P6" s="60"/>
     </row>
     <row r="7">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="146" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="138" t="s">
@@ -4713,16 +4725,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="N11" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="O11" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="P11" s="58">
-        <v>4800.0000000000009</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -4843,11 +4855,11 @@
         <v>64</v>
       </c>
       <c r="P14" s="130">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="146" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="138" t="s">
@@ -5045,16 +5057,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="N20" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="O20" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="P20" s="58">
-        <v>4800.0000000000009</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -5169,18 +5181,18 @@
         <v>62</v>
       </c>
       <c r="N23" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O23" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P23" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="53" t="s">
-        <v>66</v>
+      <c r="B25" s="146" t="s">
+        <v>68</v>
       </c>
       <c r="C25" s="138" t="s">
         <v>56</v>
@@ -5377,16 +5389,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="36">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="N29" s="36">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="O29" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="P29" s="58">
-        <v>9600.0000000000018</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -5501,18 +5513,18 @@
         <v>62</v>
       </c>
       <c r="N32" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O32" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P32" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="53" t="s">
-        <v>67</v>
+      <c r="B34" s="146" t="s">
+        <v>69</v>
       </c>
       <c r="C34" s="138" t="s">
         <v>56</v>
@@ -5709,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="N38" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="O38" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="P38" s="58">
-        <v>4800.0000000000009</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -5839,12 +5851,12 @@
         <v>64</v>
       </c>
       <c r="P41" s="130">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="53" t="s">
-        <v>68</v>
+      <c r="B43" s="146" t="s">
+        <v>70</v>
       </c>
       <c r="C43" s="138" t="s">
         <v>56</v>
@@ -6041,16 +6053,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="N47" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="O47" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="P47" s="58">
-        <v>4800.0000000000009</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -6165,18 +6177,18 @@
         <v>62</v>
       </c>
       <c r="N50" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O50" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P50" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="53" t="s">
-        <v>69</v>
+      <c r="B52" s="146" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="138" t="s">
         <v>56</v>
@@ -6373,16 +6385,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="36">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="N56" s="36">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="O56" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="P56" s="58">
-        <v>9600.0000000000018</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -6497,18 +6509,18 @@
         <v>62</v>
       </c>
       <c r="N59" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O59" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P59" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="53" t="s">
-        <v>70</v>
+      <c r="B61" s="146" t="s">
+        <v>72</v>
       </c>
       <c r="C61" s="138" t="s">
         <v>56</v>
@@ -6705,16 +6717,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="36">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="N65" s="36">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="O65" s="58">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="P65" s="58">
-        <v>2400.0000000000005</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
@@ -6835,12 +6847,12 @@
         <v>64</v>
       </c>
       <c r="P68" s="130">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="53" t="s">
-        <v>71</v>
+      <c r="B70" s="146" t="s">
+        <v>73</v>
       </c>
       <c r="C70" s="138" t="s">
         <v>56</v>
@@ -7037,16 +7049,16 @@
         <v>0</v>
       </c>
       <c r="M74" s="36">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="N74" s="36">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="O74" s="58">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="P74" s="58">
-        <v>2400.0000000000005</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -7161,18 +7173,18 @@
         <v>62</v>
       </c>
       <c r="N77" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O77" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P77" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="53" t="s">
-        <v>72</v>
+      <c r="B79" s="146" t="s">
+        <v>74</v>
       </c>
       <c r="C79" s="138" t="s">
         <v>56</v>
@@ -7369,16 +7381,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="N83" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="O83" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="P83" s="58">
-        <v>4800.0000000000009</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
@@ -7493,18 +7505,18 @@
         <v>62</v>
       </c>
       <c r="N86" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O86" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P86" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="53" t="s">
-        <v>73</v>
+      <c r="B88" s="146" t="s">
+        <v>75</v>
       </c>
       <c r="C88" s="138" t="s">
         <v>56</v>
@@ -7635,16 +7647,16 @@
       <c r="K92" s="66"/>
       <c r="L92" s="36"/>
       <c r="M92" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N92" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O92" s="58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P92" s="58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -7662,16 +7674,16 @@
       <c r="K93" s="73"/>
       <c r="L93" s="38"/>
       <c r="M93" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N93" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O93" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P93" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
@@ -7689,16 +7701,16 @@
       <c r="K94" s="70"/>
       <c r="L94" s="71"/>
       <c r="M94" s="71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N94" s="71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O94" s="72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P94" s="72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
@@ -7719,34 +7731,34 @@
         <v>62</v>
       </c>
       <c r="N95" s="132" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O95" s="133" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P95" s="130">
         <v>7</v>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="53" t="s">
-        <v>75</v>
+      <c r="B97" s="146" t="s">
+        <v>77</v>
       </c>
       <c r="C97" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D97" s="139"/>
       <c r="E97" s="139"/>
       <c r="F97" s="140"/>
       <c r="G97" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H97" s="139"/>
       <c r="I97" s="139"/>
       <c r="J97" s="139"/>
       <c r="K97" s="140"/>
       <c r="L97" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M97" s="139"/>
       <c r="N97" s="139"/>
@@ -7897,10 +7909,10 @@
         <v>28</v>
       </c>
       <c r="C101" s="66">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="D101" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="36">
         <v>0</v>
@@ -7936,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
@@ -8039,7 +8051,7 @@
       </c>
       <c r="C104" s="131"/>
       <c r="D104" s="132" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E104" s="132"/>
       <c r="F104" s="132"/>
@@ -8053,28 +8065,28 @@
       <c r="N104" s="132"/>
       <c r="O104" s="133"/>
       <c r="P104" s="130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="53" t="s">
-        <v>80</v>
+      <c r="B106" s="146" t="s">
+        <v>82</v>
       </c>
       <c r="C106" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D106" s="139"/>
       <c r="E106" s="139"/>
       <c r="F106" s="140"/>
       <c r="G106" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H106" s="139"/>
       <c r="I106" s="139"/>
       <c r="J106" s="139"/>
       <c r="K106" s="140"/>
       <c r="L106" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M106" s="139"/>
       <c r="N106" s="139"/>
@@ -8225,10 +8237,10 @@
         <v>28</v>
       </c>
       <c r="C110" s="66">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="D110" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="E110" s="36">
         <v>0</v>
@@ -8264,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="111" ht="24" customHeight="1">
@@ -8367,7 +8379,7 @@
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E113" s="132"/>
       <c r="F113" s="132"/>
@@ -8385,24 +8397,24 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" s="53" t="s">
-        <v>81</v>
+      <c r="B115" s="146" t="s">
+        <v>84</v>
       </c>
       <c r="C115" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D115" s="139"/>
       <c r="E115" s="139"/>
       <c r="F115" s="140"/>
       <c r="G115" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H115" s="139"/>
       <c r="I115" s="139"/>
       <c r="J115" s="139"/>
       <c r="K115" s="140"/>
       <c r="L115" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M115" s="139"/>
       <c r="N115" s="139"/>
@@ -8553,10 +8565,10 @@
         <v>28</v>
       </c>
       <c r="C119" s="66">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="D119" s="36">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="E119" s="36">
         <v>0</v>
@@ -8592,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="58">
-        <v>6400.0000000000009</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="120" ht="24" customHeight="1">
@@ -8695,7 +8707,7 @@
       </c>
       <c r="C122" s="131"/>
       <c r="D122" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E122" s="132"/>
       <c r="F122" s="132"/>
@@ -8713,24 +8725,24 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="53" t="s">
-        <v>82</v>
+      <c r="B124" s="146" t="s">
+        <v>85</v>
       </c>
       <c r="C124" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D124" s="139"/>
       <c r="E124" s="139"/>
       <c r="F124" s="140"/>
       <c r="G124" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H124" s="139"/>
       <c r="I124" s="139"/>
       <c r="J124" s="139"/>
       <c r="K124" s="140"/>
       <c r="L124" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M124" s="139"/>
       <c r="N124" s="139"/>
@@ -8881,10 +8893,10 @@
         <v>28</v>
       </c>
       <c r="C128" s="66">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="D128" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="E128" s="36">
         <v>0</v>
@@ -8920,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="129" ht="24" customHeight="1">
@@ -9023,7 +9035,7 @@
       </c>
       <c r="C131" s="131"/>
       <c r="D131" s="132" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E131" s="132"/>
       <c r="F131" s="132"/>
@@ -9037,28 +9049,28 @@
       <c r="N131" s="132"/>
       <c r="O131" s="133"/>
       <c r="P131" s="130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
-      <c r="B133" s="53" t="s">
-        <v>83</v>
+      <c r="B133" s="146" t="s">
+        <v>86</v>
       </c>
       <c r="C133" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D133" s="139"/>
       <c r="E133" s="139"/>
       <c r="F133" s="140"/>
       <c r="G133" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="139"/>
       <c r="K133" s="140"/>
       <c r="L133" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M133" s="139"/>
       <c r="N133" s="139"/>
@@ -9209,10 +9221,10 @@
         <v>28</v>
       </c>
       <c r="C137" s="66">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="D137" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="E137" s="36">
         <v>0</v>
@@ -9248,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
@@ -9351,7 +9363,7 @@
       </c>
       <c r="C140" s="131"/>
       <c r="D140" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E140" s="132"/>
       <c r="F140" s="132"/>
@@ -9369,24 +9381,24 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="53" t="s">
-        <v>84</v>
+      <c r="B142" s="146" t="s">
+        <v>87</v>
       </c>
       <c r="C142" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D142" s="139"/>
       <c r="E142" s="139"/>
       <c r="F142" s="140"/>
       <c r="G142" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H142" s="139"/>
       <c r="I142" s="139"/>
       <c r="J142" s="139"/>
       <c r="K142" s="140"/>
       <c r="L142" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M142" s="139"/>
       <c r="N142" s="139"/>
@@ -9537,10 +9549,10 @@
         <v>28</v>
       </c>
       <c r="C146" s="66">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="D146" s="36">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="E146" s="36">
         <v>0</v>
@@ -9576,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="58">
-        <v>6400.0000000000009</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="147" ht="24" customHeight="1">
@@ -9679,7 +9691,7 @@
       </c>
       <c r="C149" s="131"/>
       <c r="D149" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E149" s="132"/>
       <c r="F149" s="132"/>
@@ -9697,24 +9709,24 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="53" t="s">
-        <v>85</v>
+      <c r="B151" s="146" t="s">
+        <v>88</v>
       </c>
       <c r="C151" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D151" s="139"/>
       <c r="E151" s="139"/>
       <c r="F151" s="140"/>
       <c r="G151" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H151" s="139"/>
       <c r="I151" s="139"/>
       <c r="J151" s="139"/>
       <c r="K151" s="140"/>
       <c r="L151" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M151" s="139"/>
       <c r="N151" s="139"/>
@@ -9865,10 +9877,10 @@
         <v>28</v>
       </c>
       <c r="C155" s="66">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="D155" s="36">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="E155" s="36">
         <v>0</v>
@@ -9904,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="156" ht="24" customHeight="1">
@@ -10007,7 +10019,7 @@
       </c>
       <c r="C158" s="131"/>
       <c r="D158" s="132" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E158" s="132"/>
       <c r="F158" s="132"/>
@@ -10021,28 +10033,28 @@
       <c r="N158" s="132"/>
       <c r="O158" s="133"/>
       <c r="P158" s="130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
-      <c r="B160" s="53" t="s">
-        <v>86</v>
+      <c r="B160" s="146" t="s">
+        <v>89</v>
       </c>
       <c r="C160" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D160" s="139"/>
       <c r="E160" s="139"/>
       <c r="F160" s="140"/>
       <c r="G160" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H160" s="139"/>
       <c r="I160" s="139"/>
       <c r="J160" s="139"/>
       <c r="K160" s="140"/>
       <c r="L160" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M160" s="139"/>
       <c r="N160" s="139"/>
@@ -10193,10 +10205,10 @@
         <v>28</v>
       </c>
       <c r="C164" s="66">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="D164" s="36">
-        <v>800.00000000000011</v>
+        <v>800</v>
       </c>
       <c r="E164" s="36">
         <v>0</v>
@@ -10232,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="58">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="165" ht="24" customHeight="1">
@@ -10335,7 +10347,7 @@
       </c>
       <c r="C167" s="131"/>
       <c r="D167" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E167" s="132"/>
       <c r="F167" s="132"/>
@@ -10353,24 +10365,24 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" s="53" t="s">
-        <v>87</v>
+      <c r="B169" s="146" t="s">
+        <v>90</v>
       </c>
       <c r="C169" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D169" s="139"/>
       <c r="E169" s="139"/>
       <c r="F169" s="140"/>
       <c r="G169" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H169" s="139"/>
       <c r="I169" s="139"/>
       <c r="J169" s="139"/>
       <c r="K169" s="140"/>
       <c r="L169" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M169" s="139"/>
       <c r="N169" s="139"/>
@@ -10521,10 +10533,10 @@
         <v>28</v>
       </c>
       <c r="C173" s="66">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="D173" s="36">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="E173" s="36">
         <v>0</v>
@@ -10560,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="58">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="174" ht="24" customHeight="1">
@@ -10663,7 +10675,7 @@
       </c>
       <c r="C176" s="131"/>
       <c r="D176" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E176" s="132"/>
       <c r="F176" s="132"/>
@@ -10681,24 +10693,24 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="53" t="s">
-        <v>88</v>
+      <c r="B178" s="146" t="s">
+        <v>91</v>
       </c>
       <c r="C178" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D178" s="139"/>
       <c r="E178" s="139"/>
       <c r="F178" s="140"/>
       <c r="G178" s="139" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H178" s="139"/>
       <c r="I178" s="139"/>
       <c r="J178" s="139"/>
       <c r="K178" s="140"/>
       <c r="L178" s="138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M178" s="139"/>
       <c r="N178" s="139"/>
@@ -10801,10 +10813,10 @@
         <v>28</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D182" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E182" s="36"/>
       <c r="F182" s="58"/>
@@ -10818,7 +10830,7 @@
       <c r="N182" s="36"/>
       <c r="O182" s="58"/>
       <c r="P182" s="58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" ht="24" customHeight="1">
@@ -10826,10 +10838,10 @@
         <v>30</v>
       </c>
       <c r="C183" s="73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D183" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="74"/>
@@ -10843,7 +10855,7 @@
       <c r="N183" s="38"/>
       <c r="O183" s="74"/>
       <c r="P183" s="74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" ht="24" customHeight="1">
@@ -10851,10 +10863,10 @@
         <v>60</v>
       </c>
       <c r="C184" s="70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D184" s="71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E184" s="71"/>
       <c r="F184" s="72"/>
@@ -10868,7 +10880,7 @@
       <c r="N184" s="71"/>
       <c r="O184" s="72"/>
       <c r="P184" s="72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" ht="30" customHeight="1">
@@ -10877,7 +10889,7 @@
       </c>
       <c r="C185" s="131"/>
       <c r="D185" s="132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E185" s="132"/>
       <c r="F185" s="132"/>
@@ -11064,7 +11076,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -11097,7 +11109,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -11358,7 +11370,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -13566,11 +13578,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -13580,6 +13587,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -13614,97 +13626,97 @@
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="27.95" customHeight="1">
       <c r="D2" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
     <row r="4" ht="104.1" customHeight="1" s="116" customFormat="1">
       <c r="C4" s="144" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D4" s="144"/>
     </row>
     <row r="5" ht="110.1" customHeight="1" s="116" customFormat="1">
       <c r="C5" s="144" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="144"/>
     </row>
     <row r="6" ht="209.1" customHeight="1" s="116" customFormat="1">
       <c r="C6" s="144" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D6" s="144"/>
     </row>
     <row r="7" ht="89.1" customHeight="1" s="116" customFormat="1">
       <c r="C7" s="144" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D7" s="144"/>
     </row>
     <row r="8" ht="150" customHeight="1" s="116" customFormat="1">
       <c r="C8" s="144" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D8" s="144"/>
     </row>
     <row r="9" ht="200.1" customHeight="1" s="116" customFormat="1">
       <c r="C9" s="144" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D9" s="144"/>
     </row>
     <row r="10" ht="147.95" customHeight="1" s="116" customFormat="1">
       <c r="C10" s="144" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" s="144"/>
     </row>
     <row r="11" ht="134.1" customHeight="1" s="116" customFormat="1">
       <c r="C11" s="144" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D11" s="144"/>
     </row>
     <row r="12" ht="54" customHeight="1" s="116" customFormat="1">
       <c r="C12" s="144" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D12" s="144"/>
     </row>
     <row r="13" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C13" s="144" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D13" s="144"/>
     </row>
     <row r="14" ht="128.1" customHeight="1" s="116" customFormat="1">
       <c r="C14" s="144" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D14" s="144"/>
     </row>
     <row r="15" ht="51.95" customHeight="1" s="116" customFormat="1">
       <c r="C15" s="144" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" s="144"/>
     </row>
     <row r="16" ht="84" customHeight="1" s="116" customFormat="1">
       <c r="C16" s="144" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D16" s="144"/>
     </row>
     <row r="17" ht="69.95" customHeight="1" s="116" customFormat="1">
       <c r="C17" s="144" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D17" s="144"/>
     </row>
     <row r="18" ht="180" customHeight="1" s="116" customFormat="1">
       <c r="C18" s="144" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D18" s="144"/>
     </row>
@@ -13765,10 +13777,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -13803,24 +13815,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="134" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
       <c r="H5" s="134" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="134" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K5" s="134"/>
       <c r="L5" s="134" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="76" t="s">
@@ -13832,7 +13844,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
       <c r="T5" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -13852,7 +13864,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -13867,7 +13879,7 @@
       <c r="L7" s="139"/>
       <c r="M7" s="140"/>
       <c r="N7" s="138" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O7" s="139"/>
       <c r="P7" s="139"/>
@@ -13878,14 +13890,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -13938,14 +13950,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -13960,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="123">
-        <v>8.7100015859461219</v>
+        <v>7.9440000000000008</v>
       </c>
       <c r="J9" s="119">
         <v>0</v>
@@ -13972,7 +13984,7 @@
         <v>12.5</v>
       </c>
       <c r="M9" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N9" s="125">
         <v>0.5</v>
@@ -13981,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="123">
-        <v>35.867040879459836</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="119">
         <v>0</v>
@@ -13993,19 +14005,19 @@
         <v>25</v>
       </c>
       <c r="T9" s="121">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E10" s="119">
         <v>0</v>
@@ -14020,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="123">
-        <v>8.7100015859461219</v>
+        <v>7.9440000000000008</v>
       </c>
       <c r="J10" s="119">
         <v>0</v>
@@ -14032,7 +14044,7 @@
         <v>12.5</v>
       </c>
       <c r="M10" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N10" s="125">
         <v>0.5</v>
@@ -14041,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="123">
-        <v>35.867040879459836</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="119">
         <v>0</v>
@@ -14053,19 +14065,19 @@
         <v>25</v>
       </c>
       <c r="T10" s="121">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E11" s="119">
         <v>0</v>
@@ -14074,25 +14086,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="121">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="H11" s="122">
         <v>0</v>
       </c>
       <c r="I11" s="123">
-        <v>4.355000792973061</v>
+        <v>7.9440000000000008</v>
       </c>
       <c r="J11" s="119">
         <v>0</v>
       </c>
       <c r="K11" s="119">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="L11" s="124">
         <v>12.5</v>
       </c>
       <c r="M11" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N11" s="125">
         <v>0.5</v>
@@ -14101,31 +14113,31 @@
         <v>0</v>
       </c>
       <c r="P11" s="123">
-        <v>17.933520439729918</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="119">
         <v>0</v>
       </c>
       <c r="R11" s="119">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="S11" s="124">
         <v>25</v>
       </c>
       <c r="T11" s="121">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E12" s="119">
         <v>0</v>
@@ -14140,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="123">
-        <v>7.9601990049751246</v>
+        <v>7.9440000000000008</v>
       </c>
       <c r="J12" s="119">
         <v>0</v>
@@ -14152,7 +14164,7 @@
         <v>12.5</v>
       </c>
       <c r="M12" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N12" s="125">
         <v>0.5</v>
@@ -14161,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="123">
-        <v>35.867040879459836</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="119">
         <v>0</v>
@@ -14173,19 +14185,19 @@
         <v>25</v>
       </c>
       <c r="T12" s="121">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" s="119">
         <v>0</v>
@@ -14194,25 +14206,25 @@
         <v>0</v>
       </c>
       <c r="G13" s="121">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="H13" s="122">
         <v>0</v>
       </c>
       <c r="I13" s="123">
-        <v>7.9601990049751246</v>
+        <v>3.9720000000000004</v>
       </c>
       <c r="J13" s="119">
         <v>0</v>
       </c>
       <c r="K13" s="119">
-        <v>9600</v>
+        <v>4800</v>
       </c>
       <c r="L13" s="124">
         <v>12.5</v>
       </c>
       <c r="M13" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N13" s="125">
         <v>0.5</v>
@@ -14221,31 +14233,31 @@
         <v>0</v>
       </c>
       <c r="P13" s="123">
-        <v>35.867040879459836</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="119">
         <v>0</v>
       </c>
       <c r="R13" s="119">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="S13" s="124">
         <v>25</v>
       </c>
       <c r="T13" s="121">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E14" s="119">
         <v>0</v>
@@ -14260,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="123">
-        <v>3.9800995024875623</v>
+        <v>3.9720000000000004</v>
       </c>
       <c r="J14" s="119">
         <v>0</v>
@@ -14272,7 +14284,7 @@
         <v>12.5</v>
       </c>
       <c r="M14" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N14" s="125">
         <v>0.5</v>
@@ -14281,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="123">
-        <v>17.933520439729918</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="119">
         <v>0</v>
@@ -14293,14 +14305,14 @@
         <v>25</v>
       </c>
       <c r="T14" s="121">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -14315,7 +14327,7 @@
         <v>38</v>
       </c>
       <c r="I15" s="80">
-        <v>41.675501477303115</v>
+        <v>39.720000000000006</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>38</v>
@@ -14327,7 +14339,7 @@
         <v>12.5</v>
       </c>
       <c r="M15" s="43">
-        <v>14396.947336716898</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>38</v>
@@ -14336,7 +14348,7 @@
         <v>38</v>
       </c>
       <c r="P15" s="80">
-        <v>179.33520439729921</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>38</v>
@@ -14348,12 +14360,12 @@
         <v>25</v>
       </c>
       <c r="T15" s="43">
-        <v>3345.6900000000041</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -14368,7 +14380,7 @@
       <c r="L17" s="139"/>
       <c r="M17" s="140"/>
       <c r="N17" s="138" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O17" s="139"/>
       <c r="P17" s="139"/>
@@ -14379,14 +14391,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -14439,14 +14451,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E19" s="119">
         <v>0</v>
@@ -14461,19 +14473,19 @@
         <v>0</v>
       </c>
       <c r="I19" s="123">
-        <v>5.8066677239640834</v>
+        <v>5.296</v>
       </c>
       <c r="J19" s="119">
         <v>0</v>
       </c>
       <c r="K19" s="119">
-        <v>6400.0000000000009</v>
+        <v>6400</v>
       </c>
       <c r="L19" s="124">
         <v>12.5</v>
       </c>
       <c r="M19" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N19" s="125">
         <v>0.5</v>
@@ -14482,31 +14494,31 @@
         <v>0</v>
       </c>
       <c r="P19" s="123">
-        <v>23.911360586306564</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="119">
         <v>0</v>
       </c>
       <c r="R19" s="119">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="S19" s="124">
         <v>25</v>
       </c>
       <c r="T19" s="121">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E20" s="119">
         <v>0</v>
@@ -14521,19 +14533,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="123">
-        <v>5.8066677239640834</v>
+        <v>5.296</v>
       </c>
       <c r="J20" s="119">
         <v>0</v>
       </c>
       <c r="K20" s="119">
-        <v>6400.0000000000009</v>
+        <v>6400</v>
       </c>
       <c r="L20" s="124">
         <v>12.5</v>
       </c>
       <c r="M20" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N20" s="125">
         <v>0.5</v>
@@ -14542,31 +14554,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="123">
-        <v>23.911360586306564</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="119">
         <v>0</v>
       </c>
       <c r="R20" s="119">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="S20" s="124">
         <v>25</v>
       </c>
       <c r="T20" s="121">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E21" s="119">
         <v>0</v>
@@ -14575,25 +14587,25 @@
         <v>0</v>
       </c>
       <c r="G21" s="121">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="H21" s="122">
         <v>0</v>
       </c>
       <c r="I21" s="123">
-        <v>2.9033338619820417</v>
+        <v>5.296</v>
       </c>
       <c r="J21" s="119">
         <v>0</v>
       </c>
       <c r="K21" s="119">
-        <v>3200.0000000000005</v>
+        <v>6400</v>
       </c>
       <c r="L21" s="124">
         <v>12.5</v>
       </c>
       <c r="M21" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N21" s="125">
         <v>0.5</v>
@@ -14602,31 +14614,31 @@
         <v>0</v>
       </c>
       <c r="P21" s="123">
-        <v>11.955680293153282</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="119">
         <v>0</v>
       </c>
       <c r="R21" s="119">
-        <v>1600.0000000000002</v>
+        <v>3200</v>
       </c>
       <c r="S21" s="124">
         <v>25</v>
       </c>
       <c r="T21" s="121">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E22" s="119">
         <v>0</v>
@@ -14641,19 +14653,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="123">
-        <v>5.3067993366500845</v>
+        <v>5.296</v>
       </c>
       <c r="J22" s="119">
         <v>0</v>
       </c>
       <c r="K22" s="119">
-        <v>6400.0000000000009</v>
+        <v>6400</v>
       </c>
       <c r="L22" s="124">
         <v>12.5</v>
       </c>
       <c r="M22" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N22" s="125">
         <v>0.5</v>
@@ -14662,31 +14674,31 @@
         <v>0</v>
       </c>
       <c r="P22" s="123">
-        <v>23.911360586306564</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="119">
         <v>0</v>
       </c>
       <c r="R22" s="119">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="S22" s="124">
         <v>25</v>
       </c>
       <c r="T22" s="121">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23" s="119">
         <v>0</v>
@@ -14695,25 +14707,25 @@
         <v>0</v>
       </c>
       <c r="G23" s="121">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H23" s="122">
         <v>0</v>
       </c>
       <c r="I23" s="123">
-        <v>5.3067993366500845</v>
+        <v>2.648</v>
       </c>
       <c r="J23" s="119">
         <v>0</v>
       </c>
       <c r="K23" s="119">
-        <v>6400.0000000000009</v>
+        <v>3200</v>
       </c>
       <c r="L23" s="124">
         <v>12.5</v>
       </c>
       <c r="M23" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N23" s="125">
         <v>0.5</v>
@@ -14722,31 +14734,31 @@
         <v>0</v>
       </c>
       <c r="P23" s="123">
-        <v>23.911360586306564</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="119">
         <v>0</v>
       </c>
       <c r="R23" s="119">
-        <v>3200.0000000000005</v>
+        <v>1600</v>
       </c>
       <c r="S23" s="124">
         <v>25</v>
       </c>
       <c r="T23" s="121">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E24" s="119">
         <v>0</v>
@@ -14761,19 +14773,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="123">
-        <v>2.6533996683250423</v>
+        <v>2.648</v>
       </c>
       <c r="J24" s="119">
         <v>0</v>
       </c>
       <c r="K24" s="119">
-        <v>3200.0000000000005</v>
+        <v>3200</v>
       </c>
       <c r="L24" s="124">
         <v>12.5</v>
       </c>
       <c r="M24" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N24" s="125">
         <v>0.5</v>
@@ -14782,26 +14794,26 @@
         <v>0</v>
       </c>
       <c r="P24" s="123">
-        <v>11.955680293153282</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="119">
         <v>0</v>
       </c>
       <c r="R24" s="119">
-        <v>1600.0000000000002</v>
+        <v>1600</v>
       </c>
       <c r="S24" s="124">
         <v>25</v>
       </c>
       <c r="T24" s="121">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -14816,19 +14828,19 @@
         <v>38</v>
       </c>
       <c r="I25" s="80">
-        <v>27.783667651535421</v>
+        <v>26.48</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="51">
-        <v>32000.000000000004</v>
+        <v>32000</v>
       </c>
       <c r="L25" s="47">
         <v>12.5</v>
       </c>
       <c r="M25" s="43">
-        <v>14396.947336716898</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N25" s="45" t="s">
         <v>38</v>
@@ -14837,19 +14849,19 @@
         <v>38</v>
       </c>
       <c r="P25" s="80">
-        <v>119.55680293153282</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R25" s="51">
-        <v>16000.000000000002</v>
+        <v>16000</v>
       </c>
       <c r="S25" s="47">
         <v>25</v>
       </c>
       <c r="T25" s="43">
-        <v>3345.6899999999946</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -14869,7 +14881,7 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="138" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="139"/>
@@ -14880,14 +14892,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -14940,14 +14952,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E29" s="119">
         <v>0</v>
@@ -14962,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="123">
-        <v>14.516669309910206</v>
+        <v>13.240000000000002</v>
       </c>
       <c r="J29" s="119">
         <v>0</v>
@@ -14974,7 +14986,7 @@
         <v>12.5</v>
       </c>
       <c r="M29" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N29" s="125">
         <v>0.5</v>
@@ -14983,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="123">
-        <v>59.7784014657664</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="119">
         <v>0</v>
@@ -14995,19 +15007,19 @@
         <v>25</v>
       </c>
       <c r="T29" s="121">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E30" s="119">
         <v>0</v>
@@ -15022,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="123">
-        <v>14.516669309910206</v>
+        <v>13.240000000000002</v>
       </c>
       <c r="J30" s="119">
         <v>0</v>
@@ -15034,7 +15046,7 @@
         <v>12.5</v>
       </c>
       <c r="M30" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N30" s="125">
         <v>0.5</v>
@@ -15043,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="123">
-        <v>59.7784014657664</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="119">
         <v>0</v>
@@ -15055,19 +15067,19 @@
         <v>25</v>
       </c>
       <c r="T30" s="121">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E31" s="119">
         <v>0</v>
@@ -15076,25 +15088,25 @@
         <v>0</v>
       </c>
       <c r="G31" s="121">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H31" s="122">
         <v>0</v>
       </c>
       <c r="I31" s="123">
-        <v>7.2583346549551031</v>
+        <v>13.240000000000002</v>
       </c>
       <c r="J31" s="119">
         <v>0</v>
       </c>
       <c r="K31" s="119">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L31" s="124">
         <v>12.5</v>
       </c>
       <c r="M31" s="121">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N31" s="125">
         <v>0.5</v>
@@ -15103,31 +15115,31 @@
         <v>0</v>
       </c>
       <c r="P31" s="123">
-        <v>29.8892007328832</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="119">
         <v>0</v>
       </c>
       <c r="R31" s="119">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="S31" s="124">
         <v>25</v>
       </c>
       <c r="T31" s="121">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" s="119">
         <v>0</v>
@@ -15142,7 +15154,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="123">
-        <v>13.266998341625209</v>
+        <v>13.240000000000002</v>
       </c>
       <c r="J32" s="119">
         <v>0</v>
@@ -15154,7 +15166,7 @@
         <v>12.5</v>
       </c>
       <c r="M32" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N32" s="125">
         <v>0.5</v>
@@ -15163,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="123">
-        <v>59.7784014657664</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="119">
         <v>0</v>
@@ -15175,19 +15187,19 @@
         <v>25</v>
       </c>
       <c r="T32" s="121">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" s="119">
         <v>0</v>
@@ -15196,25 +15208,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="121">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H33" s="122">
         <v>0</v>
       </c>
       <c r="I33" s="123">
-        <v>13.266998341625209</v>
+        <v>6.620000000000001</v>
       </c>
       <c r="J33" s="119">
         <v>0</v>
       </c>
       <c r="K33" s="119">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L33" s="124">
         <v>12.5</v>
       </c>
       <c r="M33" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N33" s="125">
         <v>0.5</v>
@@ -15223,31 +15235,31 @@
         <v>0</v>
       </c>
       <c r="P33" s="123">
-        <v>59.7784014657664</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="119">
         <v>0</v>
       </c>
       <c r="R33" s="119">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="S33" s="124">
         <v>25</v>
       </c>
       <c r="T33" s="121">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
       <c r="A34" s="99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E34" s="119">
         <v>0</v>
@@ -15262,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="123">
-        <v>6.6334991708126045</v>
+        <v>6.620000000000001</v>
       </c>
       <c r="J34" s="119">
         <v>0</v>
@@ -15274,7 +15286,7 @@
         <v>12.5</v>
       </c>
       <c r="M34" s="121">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N34" s="125">
         <v>0.5</v>
@@ -15283,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="123">
-        <v>29.8892007328832</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="119">
         <v>0</v>
@@ -15295,14 +15307,14 @@
         <v>25</v>
       </c>
       <c r="T34" s="121">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
       <c r="B35" s="25"/>
       <c r="C35" s="39"/>
       <c r="D35" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E35" s="51">
         <v>0</v>
@@ -15317,7 +15329,7 @@
         <v>38</v>
       </c>
       <c r="I35" s="80">
-        <v>69.459169128838539</v>
+        <v>66.200000000000017</v>
       </c>
       <c r="J35" s="51" t="s">
         <v>38</v>
@@ -15329,7 +15341,7 @@
         <v>12.5</v>
       </c>
       <c r="M35" s="43">
-        <v>14396.947336716898</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N35" s="45" t="s">
         <v>38</v>
@@ -15338,7 +15350,7 @@
         <v>38</v>
       </c>
       <c r="P35" s="80">
-        <v>298.892007328832</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="51" t="s">
         <v>38</v>
@@ -15350,7 +15362,7 @@
         <v>25</v>
       </c>
       <c r="T35" s="43">
-        <v>3345.69</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" ht="48" customHeight="1">
@@ -15360,7 +15372,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="117"/>
       <c r="F37" s="145" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G37" s="145"/>
       <c r="H37" s="145"/>
@@ -15485,7 +15497,7 @@
       </c>
       <c r="D43" s="55"/>
       <c r="F43" s="145" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G43" s="145"/>
       <c r="H43" s="145"/>
@@ -15527,7 +15539,7 @@
       </c>
       <c r="D45" s="55"/>
       <c r="F45" s="136" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G45" s="136"/>
       <c r="H45" s="136"/>
@@ -15546,6 +15558,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F39:T39"/>
     <mergeCell ref="F41:T41"/>
     <mergeCell ref="F43:T43"/>
     <mergeCell ref="F45:T45"/>
@@ -15555,11 +15572,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F37:T37"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F39:T39"/>
     <mergeCell ref="H17:M17"/>
     <mergeCell ref="N17:T17"/>
     <mergeCell ref="H27:M27"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ContractOnlyPlansWithDaypartsSorting.xlsx
@@ -823,7 +823,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -835,7 +835,7 @@
     <t>03/14/20 - 04/12/20</t>
   </si>
   <si>
-    <t>A21-24</t>
+    <t>A18+</t>
   </si>
   <si>
     <t>:45, :45 eq.</t>
@@ -1302,441 +1302,441 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="147">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="19" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="20" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2391,7 +2391,7 @@
   </sheetPr>
   <dimension ref="A2:T78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -2466,7 +2466,7 @@
       <c r="F5" s="134"/>
       <c r="G5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="H5" s="76" t="str">
         <f>'PROPOSAL'!L5</f>
@@ -2574,19 +2574,19 @@
         <v>103</v>
       </c>
       <c r="E9" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F9" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H9" s="85">
         <v>40000</v>
       </c>
       <c r="I9" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J9" s="93">
         <v>1600</v>
@@ -2607,19 +2607,19 @@
         <v>103</v>
       </c>
       <c r="E10" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F10" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H10" s="85">
         <v>40000</v>
       </c>
       <c r="I10" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J10" s="93">
         <v>1600</v>
@@ -2640,19 +2640,19 @@
         <v>103</v>
       </c>
       <c r="E11" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H11" s="85">
         <v>40000</v>
       </c>
       <c r="I11" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J11" s="93">
         <v>1600</v>
@@ -2673,19 +2673,19 @@
         <v>103</v>
       </c>
       <c r="E12" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F12" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G12" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H12" s="85">
         <v>40000</v>
       </c>
       <c r="I12" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J12" s="93">
         <v>1600</v>
@@ -2706,19 +2706,19 @@
         <v>103</v>
       </c>
       <c r="E13" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F13" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H13" s="85">
         <v>20000</v>
       </c>
       <c r="I13" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J13" s="93">
         <v>800</v>
@@ -2739,19 +2739,19 @@
         <v>103</v>
       </c>
       <c r="E14" s="83">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F14" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H14" s="85">
         <v>20000</v>
       </c>
       <c r="I14" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J14" s="93">
         <v>800</v>
@@ -2772,19 +2772,19 @@
         <v>109</v>
       </c>
       <c r="E15" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F15" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G15" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H15" s="85">
         <v>40000</v>
       </c>
       <c r="I15" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J15" s="93">
         <v>1600</v>
@@ -2805,19 +2805,19 @@
         <v>109</v>
       </c>
       <c r="E16" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H16" s="85">
         <v>40000</v>
       </c>
       <c r="I16" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J16" s="93">
         <v>1600</v>
@@ -2838,19 +2838,19 @@
         <v>109</v>
       </c>
       <c r="E17" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F17" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H17" s="85">
         <v>40000</v>
       </c>
       <c r="I17" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J17" s="93">
         <v>1600</v>
@@ -2871,19 +2871,19 @@
         <v>109</v>
       </c>
       <c r="E18" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F18" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G18" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H18" s="85">
         <v>40000</v>
       </c>
       <c r="I18" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J18" s="93">
         <v>1600</v>
@@ -2904,19 +2904,19 @@
         <v>109</v>
       </c>
       <c r="E19" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F19" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G19" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H19" s="85">
         <v>20000</v>
       </c>
       <c r="I19" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J19" s="93">
         <v>800</v>
@@ -2937,19 +2937,19 @@
         <v>109</v>
       </c>
       <c r="E20" s="83">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F20" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G20" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H20" s="85">
         <v>20000</v>
       </c>
       <c r="I20" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J20" s="93">
         <v>800</v>
@@ -2970,19 +2970,19 @@
         <v>110</v>
       </c>
       <c r="E21" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F21" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G21" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H21" s="85">
         <v>40000</v>
       </c>
       <c r="I21" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J21" s="93">
         <v>1600</v>
@@ -3003,19 +3003,19 @@
         <v>110</v>
       </c>
       <c r="E22" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F22" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G22" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H22" s="85">
         <v>40000</v>
       </c>
       <c r="I22" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J22" s="93">
         <v>1600</v>
@@ -3036,19 +3036,19 @@
         <v>110</v>
       </c>
       <c r="E23" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F23" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G23" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H23" s="85">
         <v>40000</v>
       </c>
       <c r="I23" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J23" s="93">
         <v>1600</v>
@@ -3069,19 +3069,19 @@
         <v>110</v>
       </c>
       <c r="E24" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F24" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G24" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H24" s="85">
         <v>40000</v>
       </c>
       <c r="I24" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J24" s="93">
         <v>1600</v>
@@ -3102,19 +3102,19 @@
         <v>110</v>
       </c>
       <c r="E25" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F25" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G25" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H25" s="85">
         <v>20000</v>
       </c>
       <c r="I25" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J25" s="93">
         <v>800</v>
@@ -3135,19 +3135,19 @@
         <v>110</v>
       </c>
       <c r="E26" s="83">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F26" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H26" s="85">
         <v>20000</v>
       </c>
       <c r="I26" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J26" s="93">
         <v>800</v>
@@ -3162,7 +3162,7 @@
         <v>111</v>
       </c>
       <c r="E27" s="97">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="90" t="s">
         <v>38</v>
@@ -3251,7 +3251,7 @@
         <v>43899</v>
       </c>
       <c r="E31" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F31" s="84" t="s">
         <v>112</v>
@@ -3282,7 +3282,7 @@
         <v>43899</v>
       </c>
       <c r="E32" s="83">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F32" s="84" t="s">
         <v>113</v>
@@ -3313,7 +3313,7 @@
         <v>43906</v>
       </c>
       <c r="E33" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F33" s="84" t="s">
         <v>112</v>
@@ -3344,7 +3344,7 @@
         <v>43906</v>
       </c>
       <c r="E34" s="83">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F34" s="84" t="s">
         <v>113</v>
@@ -3375,7 +3375,7 @@
         <v>43913</v>
       </c>
       <c r="E35" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F35" s="84" t="s">
         <v>112</v>
@@ -3406,7 +3406,7 @@
         <v>43913</v>
       </c>
       <c r="E36" s="83">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F36" s="84" t="s">
         <v>113</v>
@@ -3433,7 +3433,7 @@
         <v>111</v>
       </c>
       <c r="E37" s="97">
-        <v>6</v>
+        <v>1000.0000000000001</v>
       </c>
       <c r="F37" s="90" t="s">
         <v>38</v>
@@ -3524,19 +3524,19 @@
         <v>115</v>
       </c>
       <c r="E41" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F41" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G41" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H41" s="85">
         <v>40000</v>
       </c>
       <c r="I41" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J41" s="93">
         <v>1600</v>
@@ -3557,19 +3557,19 @@
         <v>115</v>
       </c>
       <c r="E42" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F42" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G42" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H42" s="85">
         <v>40000</v>
       </c>
       <c r="I42" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J42" s="93">
         <v>1600</v>
@@ -3590,19 +3590,19 @@
         <v>115</v>
       </c>
       <c r="E43" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F43" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G43" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H43" s="85">
         <v>40000</v>
       </c>
       <c r="I43" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J43" s="93">
         <v>1600</v>
@@ -3623,19 +3623,19 @@
         <v>115</v>
       </c>
       <c r="E44" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F44" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G44" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H44" s="85">
         <v>40000</v>
       </c>
       <c r="I44" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J44" s="93">
         <v>1600</v>
@@ -3656,19 +3656,19 @@
         <v>115</v>
       </c>
       <c r="E45" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F45" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H45" s="85">
         <v>20000</v>
       </c>
       <c r="I45" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J45" s="93">
         <v>800</v>
@@ -3689,19 +3689,19 @@
         <v>115</v>
       </c>
       <c r="E46" s="83">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F46" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G46" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H46" s="85">
         <v>20000</v>
       </c>
       <c r="I46" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J46" s="93">
         <v>800</v>
@@ -3722,19 +3722,19 @@
         <v>116</v>
       </c>
       <c r="E47" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F47" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G47" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H47" s="85">
         <v>40000</v>
       </c>
       <c r="I47" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J47" s="93">
         <v>1600</v>
@@ -3755,19 +3755,19 @@
         <v>116</v>
       </c>
       <c r="E48" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F48" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G48" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H48" s="85">
         <v>40000</v>
       </c>
       <c r="I48" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J48" s="93">
         <v>1600</v>
@@ -3788,19 +3788,19 @@
         <v>116</v>
       </c>
       <c r="E49" s="83">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F49" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G49" s="85">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="H49" s="85">
         <v>40000</v>
       </c>
       <c r="I49" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J49" s="93">
         <v>1600</v>
@@ -3821,19 +3821,19 @@
         <v>116</v>
       </c>
       <c r="E50" s="83">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F50" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G50" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H50" s="85">
         <v>40000</v>
       </c>
       <c r="I50" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J50" s="93">
         <v>1600</v>
@@ -3854,19 +3854,19 @@
         <v>116</v>
       </c>
       <c r="E51" s="83">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="F51" s="84" t="s">
         <v>104</v>
       </c>
       <c r="G51" s="85">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="H51" s="85">
         <v>20000</v>
       </c>
       <c r="I51" s="83">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="J51" s="93">
         <v>800</v>
@@ -3887,19 +3887,19 @@
         <v>116</v>
       </c>
       <c r="E52" s="83">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F52" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G52" s="85">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="H52" s="85">
         <v>20000</v>
       </c>
       <c r="I52" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="J52" s="93">
         <v>800</v>
@@ -3914,7 +3914,7 @@
         <v>117</v>
       </c>
       <c r="E53" s="97">
-        <v>0</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="F53" s="90" t="s">
         <v>38</v>
@@ -4003,7 +4003,7 @@
         <v>43920</v>
       </c>
       <c r="E57" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F57" s="84" t="s">
         <v>112</v>
@@ -4034,7 +4034,7 @@
         <v>43920</v>
       </c>
       <c r="E58" s="83">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F58" s="84" t="s">
         <v>113</v>
@@ -4065,7 +4065,7 @@
         <v>43927</v>
       </c>
       <c r="E59" s="83">
-        <v>1</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F59" s="84" t="s">
         <v>112</v>
@@ -4096,7 +4096,7 @@
         <v>43927</v>
       </c>
       <c r="E60" s="83">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F60" s="84" t="s">
         <v>113</v>
@@ -4123,7 +4123,7 @@
         <v>117</v>
       </c>
       <c r="E61" s="97">
-        <v>4</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="F61" s="90" t="s">
         <v>38</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="C65" s="103">
-        <v>0</v>
+        <v>13.333333333333339</v>
       </c>
       <c r="D65" s="105">
         <v>1000000</v>
@@ -4483,7 +4483,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -4501,7 +4501,7 @@
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="B5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="C5" s="76" t="str">
         <f>'PROPOSAL'!N5</f>
@@ -4678,16 +4678,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="N10" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="O10" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="P10" s="59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -5010,16 +5010,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="37">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="N19" s="37">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="O19" s="59">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="P19" s="59">
-        <v>0</v>
+        <v>1.9200000000000004</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -5342,16 +5342,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="37">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="O28" s="59">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="P28" s="59">
-        <v>0</v>
+        <v>3.2000000000000006</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -5674,16 +5674,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="N37" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="O37" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="P37" s="59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -6006,16 +6006,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="37">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="N46" s="37">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="O46" s="59">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="P46" s="59">
-        <v>0</v>
+        <v>1.9200000000000004</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -6338,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="37">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="N55" s="37">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="O55" s="59">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="P55" s="59">
-        <v>0</v>
+        <v>3.2000000000000006</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -6670,16 +6670,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="N64" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="O64" s="59">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="P64" s="59">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -7002,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="M73" s="37">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="N73" s="37">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="O73" s="59">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="P73" s="59">
-        <v>0</v>
+        <v>0.96000000000000019</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -7334,16 +7334,16 @@
         <v>0</v>
       </c>
       <c r="M82" s="37">
-        <v>0</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="N82" s="37">
-        <v>0</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="O82" s="59">
-        <v>0</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="P82" s="59">
-        <v>0</v>
+        <v>1.6000000000000003</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -7620,16 +7620,16 @@
       <c r="K91" s="67"/>
       <c r="L91" s="37"/>
       <c r="M91" s="37">
-        <v>2</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="N91" s="37">
-        <v>2</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="O91" s="59">
-        <v>2</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="P91" s="59">
-        <v>6</v>
+        <v>999</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
@@ -7862,10 +7862,10 @@
         <v>23</v>
       </c>
       <c r="C100" s="67">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="D100" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="E100" s="37">
         <v>0</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="59">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
@@ -8190,10 +8190,10 @@
         <v>23</v>
       </c>
       <c r="C109" s="67">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="D109" s="37">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="E109" s="37">
         <v>0</v>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="59">
-        <v>0</v>
+        <v>1.2800000000000003</v>
       </c>
     </row>
     <row r="110" ht="24" customHeight="1">
@@ -8518,10 +8518,10 @@
         <v>23</v>
       </c>
       <c r="C118" s="67">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="D118" s="37">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="E118" s="37">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="59">
-        <v>0</v>
+        <v>2.1333333333333337</v>
       </c>
     </row>
     <row r="119" ht="24" customHeight="1">
@@ -8846,10 +8846,10 @@
         <v>23</v>
       </c>
       <c r="C127" s="67">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="D127" s="37">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="E127" s="37">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="59">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="128" ht="24" customHeight="1">
@@ -9174,10 +9174,10 @@
         <v>23</v>
       </c>
       <c r="C136" s="67">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="D136" s="37">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="E136" s="37">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="59">
-        <v>0</v>
+        <v>1.2800000000000003</v>
       </c>
     </row>
     <row r="137" ht="24" customHeight="1">
@@ -9502,10 +9502,10 @@
         <v>23</v>
       </c>
       <c r="C145" s="67">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="D145" s="37">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
       <c r="E145" s="37">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="59">
-        <v>0</v>
+        <v>2.1333333333333337</v>
       </c>
     </row>
     <row r="146" ht="24" customHeight="1">
@@ -9830,10 +9830,10 @@
         <v>23</v>
       </c>
       <c r="C154" s="67">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="D154" s="37">
-        <v>0</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="E154" s="37">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="59">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
     </row>
     <row r="155" ht="24" customHeight="1">
@@ -10158,10 +10158,10 @@
         <v>23</v>
       </c>
       <c r="C163" s="67">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="D163" s="37">
-        <v>0</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="E163" s="37">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="59">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
     </row>
     <row r="164" ht="24" customHeight="1">
@@ -10486,10 +10486,10 @@
         <v>23</v>
       </c>
       <c r="C172" s="67">
-        <v>0</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="D172" s="37">
-        <v>0</v>
+        <v>0.53333333333333344</v>
       </c>
       <c r="E172" s="37">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="59">
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
     </row>
     <row r="173" ht="24" customHeight="1">
@@ -10788,10 +10788,10 @@
         <v>23</v>
       </c>
       <c r="C181" s="67">
-        <v>2</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="D181" s="37">
-        <v>2</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="E181" s="37"/>
       <c r="F181" s="59"/>
@@ -10805,7 +10805,7 @@
       <c r="N181" s="37"/>
       <c r="O181" s="59"/>
       <c r="P181" s="59">
-        <v>4</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" ht="24" customHeight="1">
@@ -11333,13 +11333,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="47" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="43" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="45" t="s">
@@ -11359,13 +11359,13 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="47" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="43" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -11590,13 +11590,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="47" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="43" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="45" t="s">
@@ -11616,13 +11616,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="47" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="43" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -13960,43 +13960,43 @@
         <v>112</v>
       </c>
       <c r="E9" s="119">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F9" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G9" s="121">
         <v>120000</v>
       </c>
       <c r="H9" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I9" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J9" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K9" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L9" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M9" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N9" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O9" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P9" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q9" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R9" s="119">
         <v>4800</v>
@@ -14005,7 +14005,7 @@
         <v>25</v>
       </c>
       <c r="T9" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -14020,43 +14020,43 @@
         <v>113</v>
       </c>
       <c r="E10" s="119">
-        <v>0</v>
+        <v>1.9200000000000004</v>
       </c>
       <c r="F10" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G10" s="121">
         <v>120000</v>
       </c>
       <c r="H10" s="122">
-        <v>0</v>
+        <v>1.7803037522201626</v>
       </c>
       <c r="I10" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J10" s="119">
-        <v>0</v>
+        <v>2153.3161068044783</v>
       </c>
       <c r="K10" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L10" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M10" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N10" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O10" s="122">
-        <v>0</v>
+        <v>0.93749999999999978</v>
       </c>
       <c r="P10" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q10" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R10" s="119">
         <v>4800</v>
@@ -14065,7 +14065,7 @@
         <v>25</v>
       </c>
       <c r="T10" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -14080,43 +14080,43 @@
         <v>112</v>
       </c>
       <c r="E11" s="119">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F11" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G11" s="121">
         <v>120000</v>
       </c>
       <c r="H11" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I11" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J11" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K11" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L11" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M11" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N11" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O11" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P11" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q11" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R11" s="119">
         <v>4800</v>
@@ -14125,7 +14125,7 @@
         <v>25</v>
       </c>
       <c r="T11" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -14140,43 +14140,43 @@
         <v>113</v>
       </c>
       <c r="E12" s="119">
-        <v>0</v>
+        <v>1.9200000000000004</v>
       </c>
       <c r="F12" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G12" s="121">
         <v>120000</v>
       </c>
       <c r="H12" s="122">
-        <v>0</v>
+        <v>1.7803037522201626</v>
       </c>
       <c r="I12" s="123">
-        <v>7.9440000000000008</v>
+        <v>3.4181832042627129</v>
       </c>
       <c r="J12" s="119">
-        <v>0</v>
+        <v>2153.3161068044783</v>
       </c>
       <c r="K12" s="119">
-        <v>9600</v>
+        <v>4134.3669250645989</v>
       </c>
       <c r="L12" s="124">
-        <v>12.5</v>
+        <v>29.025</v>
       </c>
       <c r="M12" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007028</v>
       </c>
       <c r="N12" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O12" s="122">
-        <v>0</v>
+        <v>0.93749999999999978</v>
       </c>
       <c r="P12" s="123">
-        <v>30</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Q12" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R12" s="119">
         <v>4800</v>
@@ -14185,7 +14185,7 @@
         <v>25</v>
       </c>
       <c r="T12" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -14200,43 +14200,43 @@
         <v>112</v>
       </c>
       <c r="E13" s="119">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F13" s="120">
-        <v>0</v>
+        <v>93750</v>
       </c>
       <c r="G13" s="121">
         <v>60000</v>
       </c>
       <c r="H13" s="122">
-        <v>0</v>
+        <v>2.7244279301330532</v>
       </c>
       <c r="I13" s="123">
-        <v>3.9720000000000004</v>
+        <v>1.7436338752851541</v>
       </c>
       <c r="J13" s="119">
-        <v>0</v>
+        <v>3295.254833040422</v>
       </c>
       <c r="K13" s="119">
-        <v>4800</v>
+        <v>2108.96309314587</v>
       </c>
       <c r="L13" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M13" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762308</v>
       </c>
       <c r="N13" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O13" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P13" s="123">
-        <v>15</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Q13" s="119">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="R13" s="119">
         <v>2400</v>
@@ -14245,7 +14245,7 @@
         <v>25</v>
       </c>
       <c r="T13" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
@@ -14260,43 +14260,43 @@
         <v>113</v>
       </c>
       <c r="E14" s="119">
-        <v>0</v>
+        <v>0.96000000000000019</v>
       </c>
       <c r="F14" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G14" s="121">
         <v>60000</v>
       </c>
       <c r="H14" s="122">
-        <v>0</v>
+        <v>1.8162852867553685</v>
       </c>
       <c r="I14" s="123">
-        <v>3.9720000000000004</v>
+        <v>1.7436338752851541</v>
       </c>
       <c r="J14" s="119">
-        <v>0</v>
+        <v>2196.8365553602807</v>
       </c>
       <c r="K14" s="119">
-        <v>4800</v>
+        <v>2108.96309314587</v>
       </c>
       <c r="L14" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M14" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762308</v>
       </c>
       <c r="N14" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O14" s="122">
-        <v>0</v>
+        <v>0.93749999999999978</v>
       </c>
       <c r="P14" s="123">
-        <v>15</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Q14" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R14" s="119">
         <v>2400</v>
@@ -14305,7 +14305,7 @@
         <v>25</v>
       </c>
       <c r="T14" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
@@ -14315,7 +14315,7 @@
         <v>149</v>
       </c>
       <c r="E15" s="51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>38</v>
@@ -14327,19 +14327,19 @@
         <v>38</v>
       </c>
       <c r="I15" s="80">
-        <v>39.720000000000006</v>
+        <v>17.160000567621161</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="51">
-        <v>48000</v>
+        <v>20755.393886550137</v>
       </c>
       <c r="L15" s="47">
-        <v>12.5</v>
+        <v>28.9081480833188</v>
       </c>
       <c r="M15" s="43">
-        <v>15105.740181268882</v>
+        <v>34965.033808456035</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>38</v>
@@ -14348,7 +14348,7 @@
         <v>38</v>
       </c>
       <c r="P15" s="80">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>38</v>
@@ -14360,7 +14360,7 @@
         <v>25</v>
       </c>
       <c r="T15" s="43">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -14461,43 +14461,43 @@
         <v>112</v>
       </c>
       <c r="E19" s="119">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="F19" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G19" s="121">
         <v>80000</v>
       </c>
       <c r="H19" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I19" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J19" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K19" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L19" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M19" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N19" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O19" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P19" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q19" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R19" s="119">
         <v>3200</v>
@@ -14506,7 +14506,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -14521,43 +14521,43 @@
         <v>113</v>
       </c>
       <c r="E20" s="119">
-        <v>0</v>
+        <v>1.2800000000000003</v>
       </c>
       <c r="F20" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G20" s="121">
         <v>80000</v>
       </c>
       <c r="H20" s="122">
-        <v>0</v>
+        <v>1.7803037522201626</v>
       </c>
       <c r="I20" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J20" s="119">
-        <v>0</v>
+        <v>2153.3161068044783</v>
       </c>
       <c r="K20" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L20" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M20" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N20" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O20" s="122">
-        <v>0</v>
+        <v>0.93749999999999978</v>
       </c>
       <c r="P20" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q20" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R20" s="119">
         <v>3200</v>
@@ -14566,7 +14566,7 @@
         <v>25</v>
       </c>
       <c r="T20" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -14581,43 +14581,43 @@
         <v>112</v>
       </c>
       <c r="E21" s="119">
-        <v>0</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="F21" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G21" s="121">
         <v>80000</v>
       </c>
       <c r="H21" s="122">
-        <v>0</v>
+        <v>2.6704556283302443</v>
       </c>
       <c r="I21" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J21" s="119">
-        <v>0</v>
+        <v>3229.9741602067179</v>
       </c>
       <c r="K21" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L21" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M21" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N21" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O21" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P21" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q21" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R21" s="119">
         <v>3200</v>
@@ -14626,7 +14626,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -14641,43 +14641,43 @@
         <v>113</v>
       </c>
       <c r="E22" s="119">
-        <v>0</v>
+        <v>1.2800000000000003</v>
       </c>
       <c r="F22" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G22" s="121">
         <v>80000</v>
       </c>
       <c r="H22" s="122">
-        <v>0</v>
+        <v>1.7803037522201626</v>
       </c>
       <c r="I22" s="123">
-        <v>5.296</v>
+        <v>2.2787888028418086</v>
       </c>
       <c r="J22" s="119">
-        <v>0</v>
+        <v>2153.3161068044783</v>
       </c>
       <c r="K22" s="119">
-        <v>6400</v>
+        <v>2756.2446167097328</v>
       </c>
       <c r="L22" s="124">
-        <v>12.5</v>
+        <v>29.025000000000031</v>
       </c>
       <c r="M22" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743006969</v>
       </c>
       <c r="N22" s="125">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O22" s="122">
-        <v>0</v>
+        <v>0.93749999999999978</v>
       </c>
       <c r="P22" s="123">
-        <v>20</v>
+        <v>1.2</v>
       </c>
       <c r="Q22" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R22" s="119">
         <v>3200</v>
@@ -14686,7 +14686,7 @@
         <v>25</v>
       </c>
       <c r="T22" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
@@ -14701,43 +14701,43 @@
         <v>112</v>
       </c>
       <c r="E23" s="119">
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="F23" s="120">
-        <v>0</v>
+        <v>93749.999999999927</v>
       </c>
       <c r="G23" s="121">
         <v>40000</v>
       </c>
       <c r="H23" s="122">
-        <v>0</v>
+        <v>2.7244279301330532</v>
       </c>
       <c r="I23" s="123">
-        <v>2.648</v>
+        <v>1.1624225835234361</v>
       </c>
       <c r="J23" s="119">
-        <v>0</v>
+        <v>3295.2548330404215</v>
       </c>
       <c r="K23" s="119">
-        <v>3200</v>
+        <v>1405.97539543058</v>
       </c>
       <c r="L23" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M23" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762119</v>
       </c>
       <c r="N23" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O23" s="122">
-        <v>0</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="P23" s="123">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="Q23" s="119">
-        <v>0</v>
+        <v>3749.9999999999995</v>
       </c>
       <c r="R23" s="119">
         <v>1600</v>
@@ -14746,7 +14746,7 @@
         <v>25</v>
       </c>
       <c r="T23" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1">
@@ -14761,43 +14761,43 @@
         <v>113</v>
       </c>
       <c r="E24" s="119">
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F24" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G24" s="121">
         <v>40000</v>
       </c>
       <c r="H24" s="122">
-        <v>0</v>
+        <v>1.8162852867553685</v>
       </c>
       <c r="I24" s="123">
-        <v>2.648</v>
+        <v>1.1624225835234361</v>
       </c>
       <c r="J24" s="119">
-        <v>0</v>
+        <v>2196.8365553602807</v>
       </c>
       <c r="K24" s="119">
-        <v>3200</v>
+        <v>1405.97539543058</v>
       </c>
       <c r="L24" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M24" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762119</v>
       </c>
       <c r="N24" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O24" s="122">
-        <v>0</v>
+        <v>0.93749999999999978</v>
       </c>
       <c r="P24" s="123">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="Q24" s="119">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R24" s="119">
         <v>1600</v>
@@ -14806,7 +14806,7 @@
         <v>25</v>
       </c>
       <c r="T24" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1">
@@ -14816,7 +14816,7 @@
         <v>149</v>
       </c>
       <c r="E25" s="51">
-        <v>0</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>38</v>
@@ -14828,19 +14828,19 @@
         <v>38</v>
       </c>
       <c r="I25" s="80">
-        <v>26.48</v>
+        <v>11.440000378414108</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="51">
-        <v>32000</v>
+        <v>13836.929257700091</v>
       </c>
       <c r="L25" s="47">
-        <v>12.5</v>
+        <v>28.908148083318729</v>
       </c>
       <c r="M25" s="43">
-        <v>15105.740181268882</v>
+        <v>34965.033808456137</v>
       </c>
       <c r="N25" s="45" t="s">
         <v>38</v>
@@ -14849,7 +14849,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="80">
-        <v>100</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="Q25" s="51" t="s">
         <v>38</v>
@@ -14861,7 +14861,7 @@
         <v>25</v>
       </c>
       <c r="T25" s="43">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -14962,43 +14962,43 @@
         <v>112</v>
       </c>
       <c r="E29" s="119">
-        <v>0</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="F29" s="120">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="G29" s="121">
         <v>200000</v>
       </c>
       <c r="H29" s="122">
-        <v>0</v>
+        <v>5.3409112566604886</v>
       </c>
       <c r="I29" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J29" s="119">
-        <v>0</v>
+        <v>6459.9483204134358</v>
       </c>
       <c r="K29" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L29" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M29" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N29" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O29" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P29" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R29" s="119">
         <v>8000</v>
@@ -15007,7 +15007,7 @@
         <v>25</v>
       </c>
       <c r="T29" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -15022,43 +15022,43 @@
         <v>113</v>
       </c>
       <c r="E30" s="119">
-        <v>0</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="F30" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G30" s="121">
         <v>200000</v>
       </c>
       <c r="H30" s="122">
-        <v>0</v>
+        <v>3.5606075044403251</v>
       </c>
       <c r="I30" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J30" s="119">
-        <v>0</v>
+        <v>4306.6322136089566</v>
       </c>
       <c r="K30" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L30" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M30" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N30" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O30" s="122">
-        <v>0</v>
+        <v>1.8749999999999996</v>
       </c>
       <c r="P30" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="119">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R30" s="119">
         <v>8000</v>
@@ -15067,7 +15067,7 @@
         <v>25</v>
       </c>
       <c r="T30" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -15082,43 +15082,43 @@
         <v>112</v>
       </c>
       <c r="E31" s="119">
-        <v>0</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="F31" s="120">
-        <v>0</v>
+        <v>93750.000000000146</v>
       </c>
       <c r="G31" s="121">
         <v>200000</v>
       </c>
       <c r="H31" s="122">
-        <v>0</v>
+        <v>5.3409112566604886</v>
       </c>
       <c r="I31" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J31" s="119">
-        <v>0</v>
+        <v>6459.9483204134358</v>
       </c>
       <c r="K31" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L31" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M31" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N31" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O31" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P31" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R31" s="119">
         <v>8000</v>
@@ -15127,7 +15127,7 @@
         <v>25</v>
       </c>
       <c r="T31" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
@@ -15142,43 +15142,43 @@
         <v>113</v>
       </c>
       <c r="E32" s="119">
-        <v>0</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="F32" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G32" s="121">
         <v>200000</v>
       </c>
       <c r="H32" s="122">
-        <v>0</v>
+        <v>3.5606075044403251</v>
       </c>
       <c r="I32" s="123">
-        <v>13.240000000000002</v>
+        <v>5.696972007104522</v>
       </c>
       <c r="J32" s="119">
-        <v>0</v>
+        <v>4306.6322136089566</v>
       </c>
       <c r="K32" s="119">
-        <v>16000</v>
+        <v>6890.6115417743313</v>
       </c>
       <c r="L32" s="124">
-        <v>12.5</v>
+        <v>29.025000000000013</v>
       </c>
       <c r="M32" s="121">
-        <v>15105.740181268882</v>
+        <v>35106.368743007006</v>
       </c>
       <c r="N32" s="125">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O32" s="122">
-        <v>0</v>
+        <v>1.8749999999999996</v>
       </c>
       <c r="P32" s="123">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="119">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R32" s="119">
         <v>8000</v>
@@ -15187,7 +15187,7 @@
         <v>25</v>
       </c>
       <c r="T32" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
@@ -15202,43 +15202,43 @@
         <v>112</v>
       </c>
       <c r="E33" s="119">
-        <v>0</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="F33" s="120">
-        <v>0</v>
+        <v>93749.999999999709</v>
       </c>
       <c r="G33" s="121">
         <v>100000</v>
       </c>
       <c r="H33" s="122">
-        <v>0</v>
+        <v>5.4488558602661064</v>
       </c>
       <c r="I33" s="123">
-        <v>6.620000000000001</v>
+        <v>2.90605645880859</v>
       </c>
       <c r="J33" s="119">
-        <v>0</v>
+        <v>6590.5096660808431</v>
       </c>
       <c r="K33" s="119">
-        <v>8000</v>
+        <v>3514.9384885764503</v>
       </c>
       <c r="L33" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M33" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762228</v>
       </c>
       <c r="N33" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O33" s="122">
-        <v>0</v>
+        <v>2.8124999999999996</v>
       </c>
       <c r="P33" s="123">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="Q33" s="119">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="R33" s="119">
         <v>4000</v>
@@ -15247,7 +15247,7 @@
         <v>25</v>
       </c>
       <c r="T33" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1">
@@ -15262,43 +15262,43 @@
         <v>113</v>
       </c>
       <c r="E34" s="119">
-        <v>0</v>
+        <v>1.6000000000000003</v>
       </c>
       <c r="F34" s="120">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G34" s="121">
         <v>100000</v>
       </c>
       <c r="H34" s="122">
-        <v>0</v>
+        <v>3.632570573510737</v>
       </c>
       <c r="I34" s="123">
-        <v>6.620000000000001</v>
+        <v>2.90605645880859</v>
       </c>
       <c r="J34" s="119">
-        <v>0</v>
+        <v>4393.6731107205615</v>
       </c>
       <c r="K34" s="119">
-        <v>8000</v>
+        <v>3514.9384885764503</v>
       </c>
       <c r="L34" s="124">
-        <v>12.5</v>
+        <v>28.449999999999996</v>
       </c>
       <c r="M34" s="121">
-        <v>15105.740181268882</v>
+        <v>34410.893737762228</v>
       </c>
       <c r="N34" s="125">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O34" s="122">
-        <v>0</v>
+        <v>1.8749999999999996</v>
       </c>
       <c r="P34" s="123">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" s="119">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R34" s="119">
         <v>4000</v>
@@ -15307,7 +15307,7 @@
         <v>25</v>
       </c>
       <c r="T34" s="121">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -15317,7 +15317,7 @@
         <v>149</v>
       </c>
       <c r="E35" s="51">
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>38</v>
@@ -15329,19 +15329,19 @@
         <v>38</v>
       </c>
       <c r="I35" s="80">
-        <v>66.200000000000017</v>
+        <v>28.600000946035266</v>
       </c>
       <c r="J35" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="51">
-        <v>80000</v>
+        <v>34592.323144250229</v>
       </c>
       <c r="L35" s="47">
-        <v>12.5</v>
+        <v>28.908148083318771</v>
       </c>
       <c r="M35" s="43">
-        <v>15105.740181268882</v>
+        <v>34965.033808456079</v>
       </c>
       <c r="N35" s="45" t="s">
         <v>38</v>
@@ -15350,7 +15350,7 @@
         <v>38</v>
       </c>
       <c r="P35" s="80">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="51" t="s">
         <v>38</v>
@@ -15362,7 +15362,7 @@
         <v>25</v>
       </c>
       <c r="T35" s="43">
-        <v>4000</v>
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="37" ht="48" customHeight="1">
